--- a/servents.xlsx
+++ b/servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1383" uniqueCount="695">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="699">
   <si>
     <t>collectionNo</t>
   </si>
@@ -1015,6 +1015,15 @@
     <t>言峰綺礼</t>
   </si>
   <si>
+    <t>ニトクリス〔オルタ〕</t>
+  </si>
+  <si>
+    <t>テスカトリポカ</t>
+  </si>
+  <si>
+    <t>テノチティトラン</t>
+  </si>
+  <si>
     <t>瑪修·基列萊特</t>
   </si>
   <si>
@@ -1763,6 +1772,9 @@
   </si>
   <si>
     <t>暗之高揚斯卡婭</t>
+  </si>
+  <si>
+    <t>赫費斯提翁</t>
   </si>
   <si>
     <t>瑪修．基利艾拉特</t>
@@ -2456,7 +2468,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F370"/>
+  <dimension ref="A1:F373"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2496,10 +2508,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="F2" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2516,10 +2528,10 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F3" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2536,10 +2548,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F4" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2556,10 +2568,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="F5" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2576,10 +2588,10 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F6" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2596,10 +2608,10 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F7" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2616,10 +2628,10 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="F8" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2636,10 +2648,10 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="F9" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2656,10 +2668,10 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F10" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2676,10 +2688,10 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="F11" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2696,10 +2708,10 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F12" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2716,10 +2728,10 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F13" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2736,10 +2748,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="F14" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2756,10 +2768,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="F15" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2776,10 +2788,10 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="F16" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2796,10 +2808,10 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="F17" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2816,10 +2828,10 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2836,10 +2848,10 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="F19" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2856,10 +2868,10 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="F20" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2876,10 +2888,10 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="F21" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2896,10 +2908,10 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F22" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2916,10 +2928,10 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="F23" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2936,10 +2948,10 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F24" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2956,10 +2968,10 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="F25" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2976,10 +2988,10 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="F26" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2996,10 +3008,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="F27" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3036,10 +3048,10 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="F29" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3056,10 +3068,10 @@
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F30" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3076,10 +3088,10 @@
         <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F31" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3096,10 +3108,10 @@
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F32" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3116,10 +3128,10 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="F33" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3136,10 +3148,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="F34" t="s">
-        <v>601</v>
+        <v>605</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3156,10 +3168,10 @@
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="F35" t="s">
-        <v>602</v>
+        <v>606</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3176,10 +3188,10 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="F36" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3196,10 +3208,10 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="F37" t="s">
-        <v>603</v>
+        <v>607</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3216,10 +3228,10 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F38" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3236,10 +3248,10 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F39" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3256,10 +3268,10 @@
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="F40" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3276,10 +3288,10 @@
         <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="F41" t="s">
-        <v>604</v>
+        <v>608</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3296,10 +3308,10 @@
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="F42" t="s">
-        <v>605</v>
+        <v>609</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3316,7 +3328,7 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -3336,10 +3348,10 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F44" t="s">
-        <v>606</v>
+        <v>610</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3356,10 +3368,10 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="F45" t="s">
-        <v>607</v>
+        <v>611</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3376,10 +3388,10 @@
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="F46" t="s">
-        <v>608</v>
+        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3396,10 +3408,10 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3416,10 +3428,10 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="F48" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3436,10 +3448,10 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F49" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3456,7 +3468,7 @@
         <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>378</v>
+        <v>381</v>
       </c>
       <c r="F50" t="s">
         <v>72</v>
@@ -3476,10 +3488,10 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
       <c r="F51" t="s">
-        <v>379</v>
+        <v>382</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3516,10 +3528,10 @@
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
       <c r="F53" t="s">
-        <v>380</v>
+        <v>383</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3536,10 +3548,10 @@
         <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="F54" t="s">
-        <v>609</v>
+        <v>613</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3556,10 +3568,10 @@
         <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="F55" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3576,10 +3588,10 @@
         <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F56" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3596,10 +3608,10 @@
         <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F57" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3616,10 +3628,10 @@
         <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="F58" t="s">
-        <v>610</v>
+        <v>614</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3636,10 +3648,10 @@
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="F59" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3656,10 +3668,10 @@
         <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F60" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3676,10 +3688,10 @@
         <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="F61" t="s">
-        <v>611</v>
+        <v>615</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3696,10 +3708,10 @@
         <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F62" t="s">
-        <v>612</v>
+        <v>616</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3716,10 +3728,10 @@
         <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F63" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3736,10 +3748,10 @@
         <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="F64" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3756,10 +3768,10 @@
         <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="F65" t="s">
-        <v>613</v>
+        <v>617</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3776,10 +3788,10 @@
         <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="F66" t="s">
-        <v>614</v>
+        <v>618</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3796,10 +3808,10 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F67" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3816,10 +3828,10 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="F68" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3836,10 +3848,10 @@
         <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F69" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3876,10 +3888,10 @@
         <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F71" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3896,10 +3908,10 @@
         <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F72" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3916,10 +3928,10 @@
         <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="F73" t="s">
-        <v>618</v>
+        <v>622</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3936,10 +3948,10 @@
         <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="F74" t="s">
-        <v>619</v>
+        <v>623</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3956,10 +3968,10 @@
         <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="F75" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3976,10 +3988,10 @@
         <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="F76" t="s">
-        <v>620</v>
+        <v>624</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -3996,10 +4008,10 @@
         <v>99</v>
       </c>
       <c r="E77" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F77" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4016,10 +4028,10 @@
         <v>100</v>
       </c>
       <c r="E78" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="F78" t="s">
-        <v>621</v>
+        <v>625</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4036,10 +4048,10 @@
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F79" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4056,10 +4068,10 @@
         <v>101</v>
       </c>
       <c r="E80" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="F80" t="s">
-        <v>622</v>
+        <v>626</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4076,10 +4088,10 @@
         <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="F81" t="s">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4096,10 +4108,10 @@
         <v>103</v>
       </c>
       <c r="E82" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="F82" t="s">
-        <v>624</v>
+        <v>628</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4116,10 +4128,10 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F83" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4136,10 +4148,10 @@
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F84" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4156,10 +4168,10 @@
         <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="F85" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4176,10 +4188,10 @@
         <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="F86" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4196,10 +4208,10 @@
         <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="F87" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4216,10 +4228,10 @@
         <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="F88" t="s">
-        <v>625</v>
+        <v>629</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4236,10 +4248,10 @@
         <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F89" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4256,10 +4268,10 @@
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="F90" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4276,10 +4288,10 @@
         <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>416</v>
+        <v>419</v>
       </c>
       <c r="F91" t="s">
-        <v>626</v>
+        <v>630</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4296,10 +4308,10 @@
         <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F92" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4316,10 +4328,10 @@
         <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="F93" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4356,10 +4368,10 @@
         <v>115</v>
       </c>
       <c r="E95" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F95" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4376,10 +4388,10 @@
         <v>116</v>
       </c>
       <c r="E96" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="F96" t="s">
-        <v>627</v>
+        <v>631</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4396,10 +4408,10 @@
         <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="F97" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4416,10 +4428,10 @@
         <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="F98" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4436,10 +4448,10 @@
         <v>119</v>
       </c>
       <c r="E99" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="F99" t="s">
-        <v>628</v>
+        <v>632</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4456,10 +4468,10 @@
         <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F100" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4476,10 +4488,10 @@
         <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F101" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4496,10 +4508,10 @@
         <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="F102" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4536,10 +4548,10 @@
         <v>124</v>
       </c>
       <c r="E104" t="s">
-        <v>426</v>
+        <v>429</v>
       </c>
       <c r="F104" t="s">
-        <v>630</v>
+        <v>634</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4556,10 +4568,10 @@
         <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
       <c r="F105" t="s">
-        <v>427</v>
+        <v>430</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4576,10 +4588,10 @@
         <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
       <c r="F106" t="s">
-        <v>428</v>
+        <v>431</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4596,10 +4608,10 @@
         <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F107" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4616,10 +4628,10 @@
         <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>430</v>
+        <v>433</v>
       </c>
       <c r="F108" t="s">
-        <v>631</v>
+        <v>635</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4636,10 +4648,10 @@
         <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="F109" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4656,10 +4668,10 @@
         <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="F110" t="s">
-        <v>632</v>
+        <v>636</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4676,10 +4688,10 @@
         <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="F111" t="s">
-        <v>633</v>
+        <v>637</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4696,10 +4708,10 @@
         <v>132</v>
       </c>
       <c r="E112" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
       <c r="F112" t="s">
-        <v>434</v>
+        <v>437</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4716,10 +4728,10 @@
         <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F113" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4736,10 +4748,10 @@
         <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="F114" t="s">
-        <v>634</v>
+        <v>638</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4756,10 +4768,10 @@
         <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F115" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4836,10 +4848,10 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="F119" t="s">
-        <v>635</v>
+        <v>639</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4856,10 +4868,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F120" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4876,10 +4888,10 @@
         <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F121" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4896,10 +4908,10 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="F122" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4916,10 +4928,10 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="F123" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4936,10 +4948,10 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="F124" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4956,10 +4968,10 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="F125" t="s">
-        <v>637</v>
+        <v>641</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -4996,10 +5008,10 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="F127" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5016,10 +5028,10 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F128" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5036,10 +5048,10 @@
         <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="F129" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5056,10 +5068,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F130" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5076,10 +5088,10 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="F131" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5096,10 +5108,10 @@
         <v>89</v>
       </c>
       <c r="E132" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="F132" t="s">
-        <v>615</v>
+        <v>619</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5116,10 +5128,10 @@
         <v>99</v>
       </c>
       <c r="E133" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="F133" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5136,10 +5148,10 @@
         <v>93</v>
       </c>
       <c r="E134" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="F134" t="s">
-        <v>616</v>
+        <v>620</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5156,10 +5168,10 @@
         <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="F135" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5176,10 +5188,10 @@
         <v>55</v>
       </c>
       <c r="E136" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="F136" t="s">
-        <v>600</v>
+        <v>604</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5196,10 +5208,10 @@
         <v>146</v>
       </c>
       <c r="E137" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F137" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5216,10 +5228,10 @@
         <v>147</v>
       </c>
       <c r="E138" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="F138" t="s">
-        <v>640</v>
+        <v>644</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5236,10 +5248,10 @@
         <v>148</v>
       </c>
       <c r="E139" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="F139" t="s">
-        <v>641</v>
+        <v>645</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5256,10 +5268,10 @@
         <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="F140" t="s">
-        <v>642</v>
+        <v>646</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5276,10 +5288,10 @@
         <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="F141" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5296,10 +5308,10 @@
         <v>151</v>
       </c>
       <c r="E142" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="F142" t="s">
-        <v>643</v>
+        <v>647</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5316,10 +5328,10 @@
         <v>152</v>
       </c>
       <c r="E143" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F143" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5336,10 +5348,10 @@
         <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="F144" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5356,10 +5368,10 @@
         <v>154</v>
       </c>
       <c r="E145" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="F145" t="s">
-        <v>645</v>
+        <v>649</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5376,10 +5388,10 @@
         <v>37</v>
       </c>
       <c r="E146" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F146" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5396,10 +5408,10 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F147" t="s">
-        <v>454</v>
+        <v>457</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5416,10 +5428,10 @@
         <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>455</v>
+        <v>458</v>
       </c>
       <c r="F148" t="s">
-        <v>646</v>
+        <v>650</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5436,10 +5448,10 @@
         <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
       <c r="F149" t="s">
-        <v>456</v>
+        <v>459</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5456,10 +5468,10 @@
         <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>457</v>
+        <v>460</v>
       </c>
       <c r="F150" t="s">
-        <v>647</v>
+        <v>651</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5476,10 +5488,10 @@
         <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
       <c r="F151" t="s">
-        <v>458</v>
+        <v>461</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5496,10 +5508,10 @@
         <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>459</v>
+        <v>462</v>
       </c>
       <c r="F152" t="s">
-        <v>648</v>
+        <v>652</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5516,10 +5528,10 @@
         <v>105</v>
       </c>
       <c r="E153" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="F153" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5536,10 +5548,10 @@
         <v>160</v>
       </c>
       <c r="E154" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F154" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5556,10 +5568,10 @@
         <v>161</v>
       </c>
       <c r="E155" t="s">
-        <v>461</v>
+        <v>464</v>
       </c>
       <c r="F155" t="s">
-        <v>649</v>
+        <v>653</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5576,10 +5588,10 @@
         <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
       <c r="F156" t="s">
-        <v>462</v>
+        <v>465</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5596,10 +5608,10 @@
         <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>463</v>
+        <v>466</v>
       </c>
       <c r="F157" t="s">
-        <v>650</v>
+        <v>654</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5616,10 +5628,10 @@
         <v>164</v>
       </c>
       <c r="E158" t="s">
-        <v>464</v>
+        <v>467</v>
       </c>
       <c r="F158" t="s">
-        <v>651</v>
+        <v>655</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5636,10 +5648,10 @@
         <v>165</v>
       </c>
       <c r="E159" t="s">
-        <v>465</v>
+        <v>468</v>
       </c>
       <c r="F159" t="s">
-        <v>652</v>
+        <v>656</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5676,10 +5688,10 @@
         <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>466</v>
+        <v>469</v>
       </c>
       <c r="F161" t="s">
-        <v>653</v>
+        <v>657</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5696,10 +5708,10 @@
         <v>168</v>
       </c>
       <c r="E162" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
       <c r="F162" t="s">
-        <v>467</v>
+        <v>470</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5716,10 +5728,10 @@
         <v>169</v>
       </c>
       <c r="E163" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="F163" t="s">
-        <v>468</v>
+        <v>471</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5736,10 +5748,10 @@
         <v>170</v>
       </c>
       <c r="E164" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="F164" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5756,10 +5768,10 @@
         <v>171</v>
       </c>
       <c r="E165" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
       <c r="F165" t="s">
-        <v>470</v>
+        <v>473</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5796,10 +5808,10 @@
         <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F167" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5816,10 +5828,10 @@
         <v>174</v>
       </c>
       <c r="E168" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F168" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5836,10 +5848,10 @@
         <v>175</v>
       </c>
       <c r="E169" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
       <c r="F169" t="s">
-        <v>473</v>
+        <v>476</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5856,10 +5868,10 @@
         <v>176</v>
       </c>
       <c r="E170" t="s">
-        <v>474</v>
+        <v>477</v>
       </c>
       <c r="F170" t="s">
-        <v>655</v>
+        <v>659</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5876,7 +5888,7 @@
         <v>177</v>
       </c>
       <c r="E171" t="s">
-        <v>475</v>
+        <v>478</v>
       </c>
       <c r="F171" t="s">
         <v>177</v>
@@ -5896,10 +5908,10 @@
         <v>178</v>
       </c>
       <c r="E172" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="F172" t="s">
-        <v>476</v>
+        <v>479</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5916,10 +5928,10 @@
         <v>179</v>
       </c>
       <c r="E173" t="s">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="F173" t="s">
-        <v>656</v>
+        <v>660</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5936,10 +5948,10 @@
         <v>180</v>
       </c>
       <c r="E174" t="s">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="F174" t="s">
-        <v>657</v>
+        <v>661</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5956,10 +5968,10 @@
         <v>181</v>
       </c>
       <c r="E175" t="s">
-        <v>479</v>
+        <v>482</v>
       </c>
       <c r="F175" t="s">
-        <v>658</v>
+        <v>662</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5976,10 +5988,10 @@
         <v>30</v>
       </c>
       <c r="E176" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="F176" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -5996,10 +6008,10 @@
         <v>104</v>
       </c>
       <c r="E177" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="F177" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6016,10 +6028,10 @@
         <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="F178" t="s">
-        <v>636</v>
+        <v>640</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6056,10 +6068,10 @@
         <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="F180" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6076,10 +6088,10 @@
         <v>121</v>
       </c>
       <c r="E181" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="F181" t="s">
-        <v>629</v>
+        <v>633</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6096,10 +6108,10 @@
         <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="F182" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6116,10 +6128,10 @@
         <v>152</v>
       </c>
       <c r="E183" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="F183" t="s">
-        <v>644</v>
+        <v>648</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6136,10 +6148,10 @@
         <v>182</v>
       </c>
       <c r="E184" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
       <c r="F184" t="s">
-        <v>480</v>
+        <v>483</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6196,10 +6208,10 @@
         <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
       <c r="F187" t="s">
-        <v>481</v>
+        <v>484</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6236,10 +6248,10 @@
         <v>187</v>
       </c>
       <c r="E189" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F189" t="s">
-        <v>482</v>
+        <v>485</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6256,10 +6268,10 @@
         <v>188</v>
       </c>
       <c r="E190" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F190" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6276,10 +6288,10 @@
         <v>189</v>
       </c>
       <c r="E191" t="s">
-        <v>484</v>
+        <v>487</v>
       </c>
       <c r="F191" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6296,10 +6308,10 @@
         <v>190</v>
       </c>
       <c r="E192" t="s">
-        <v>485</v>
+        <v>488</v>
       </c>
       <c r="F192" t="s">
-        <v>660</v>
+        <v>664</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6316,10 +6328,10 @@
         <v>191</v>
       </c>
       <c r="E193" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
       <c r="F193" t="s">
-        <v>486</v>
+        <v>489</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6336,7 +6348,7 @@
         <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>487</v>
+        <v>490</v>
       </c>
       <c r="F194" t="s">
         <v>192</v>
@@ -6356,10 +6368,10 @@
         <v>193</v>
       </c>
       <c r="E195" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
       <c r="F195" t="s">
-        <v>488</v>
+        <v>491</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6376,10 +6388,10 @@
         <v>194</v>
       </c>
       <c r="E196" t="s">
-        <v>489</v>
+        <v>492</v>
       </c>
       <c r="F196" t="s">
-        <v>661</v>
+        <v>665</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6396,10 +6408,10 @@
         <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
       <c r="F197" t="s">
-        <v>490</v>
+        <v>493</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6416,10 +6428,10 @@
         <v>196</v>
       </c>
       <c r="E198" t="s">
-        <v>491</v>
+        <v>494</v>
       </c>
       <c r="F198" t="s">
-        <v>662</v>
+        <v>666</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6436,10 +6448,10 @@
         <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F199" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6456,10 +6468,10 @@
         <v>198</v>
       </c>
       <c r="E200" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
       <c r="F200" t="s">
-        <v>493</v>
+        <v>496</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6476,10 +6488,10 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
       <c r="F201" t="s">
-        <v>494</v>
+        <v>497</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6496,10 +6508,10 @@
         <v>200</v>
       </c>
       <c r="E202" t="s">
-        <v>495</v>
+        <v>498</v>
       </c>
       <c r="F202" t="s">
-        <v>663</v>
+        <v>667</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6516,10 +6528,10 @@
         <v>201</v>
       </c>
       <c r="E203" t="s">
-        <v>496</v>
+        <v>499</v>
       </c>
       <c r="F203" t="s">
-        <v>664</v>
+        <v>668</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6536,10 +6548,10 @@
         <v>202</v>
       </c>
       <c r="E204" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
       <c r="F204" t="s">
-        <v>497</v>
+        <v>500</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6556,10 +6568,10 @@
         <v>203</v>
       </c>
       <c r="E205" t="s">
-        <v>498</v>
+        <v>501</v>
       </c>
       <c r="F205" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6576,10 +6588,10 @@
         <v>204</v>
       </c>
       <c r="E206" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
       <c r="F206" t="s">
-        <v>499</v>
+        <v>502</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6596,10 +6608,10 @@
         <v>205</v>
       </c>
       <c r="E207" t="s">
-        <v>500</v>
+        <v>503</v>
       </c>
       <c r="F207" t="s">
-        <v>666</v>
+        <v>670</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6616,10 +6628,10 @@
         <v>206</v>
       </c>
       <c r="E208" t="s">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="F208" t="s">
-        <v>667</v>
+        <v>671</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6636,10 +6648,10 @@
         <v>207</v>
       </c>
       <c r="E209" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
       <c r="F209" t="s">
-        <v>502</v>
+        <v>505</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6656,10 +6668,10 @@
         <v>208</v>
       </c>
       <c r="E210" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="F210" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6676,10 +6688,10 @@
         <v>209</v>
       </c>
       <c r="E211" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="F211" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6716,10 +6728,10 @@
         <v>211</v>
       </c>
       <c r="E213" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="F213" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6736,10 +6748,10 @@
         <v>212</v>
       </c>
       <c r="E214" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
       <c r="F214" t="s">
-        <v>506</v>
+        <v>509</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6756,10 +6768,10 @@
         <v>213</v>
       </c>
       <c r="E215" t="s">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="F215" t="s">
-        <v>668</v>
+        <v>672</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6776,10 +6788,10 @@
         <v>214</v>
       </c>
       <c r="E216" t="s">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="F216" t="s">
-        <v>669</v>
+        <v>673</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6796,10 +6808,10 @@
         <v>82</v>
       </c>
       <c r="E217" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="F217" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6856,10 +6868,10 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
       <c r="F220" t="s">
-        <v>429</v>
+        <v>432</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6876,10 +6888,10 @@
         <v>173</v>
       </c>
       <c r="E221" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
       <c r="F221" t="s">
-        <v>471</v>
+        <v>474</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6896,10 +6908,10 @@
         <v>120</v>
       </c>
       <c r="E222" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="F222" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6916,10 +6928,10 @@
         <v>215</v>
       </c>
       <c r="E223" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
       <c r="F223" t="s">
-        <v>509</v>
+        <v>512</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6936,10 +6948,10 @@
         <v>94</v>
       </c>
       <c r="E224" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="F224" t="s">
-        <v>617</v>
+        <v>621</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6956,10 +6968,10 @@
         <v>216</v>
       </c>
       <c r="E225" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="F225" t="s">
-        <v>510</v>
+        <v>513</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6976,10 +6988,10 @@
         <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="F226" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -6996,7 +7008,7 @@
         <v>217</v>
       </c>
       <c r="E227" t="s">
-        <v>511</v>
+        <v>514</v>
       </c>
       <c r="F227" t="s">
         <v>217</v>
@@ -7036,7 +7048,7 @@
         <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="F229" t="s">
         <v>219</v>
@@ -7056,7 +7068,7 @@
         <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>513</v>
+        <v>516</v>
       </c>
       <c r="F230" t="s">
         <v>220</v>
@@ -7076,7 +7088,7 @@
         <v>221</v>
       </c>
       <c r="E231" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F231" t="s">
         <v>221</v>
@@ -7096,10 +7108,10 @@
         <v>222</v>
       </c>
       <c r="E232" t="s">
-        <v>515</v>
+        <v>518</v>
       </c>
       <c r="F232" t="s">
-        <v>670</v>
+        <v>674</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7116,10 +7128,10 @@
         <v>223</v>
       </c>
       <c r="E233" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
       <c r="F233" t="s">
-        <v>516</v>
+        <v>519</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7136,10 +7148,10 @@
         <v>224</v>
       </c>
       <c r="E234" t="s">
-        <v>517</v>
+        <v>520</v>
       </c>
       <c r="F234" t="s">
-        <v>671</v>
+        <v>675</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7196,10 +7208,10 @@
         <v>226</v>
       </c>
       <c r="E237" t="s">
-        <v>518</v>
+        <v>521</v>
       </c>
       <c r="F237" t="s">
-        <v>672</v>
+        <v>676</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7236,10 +7248,10 @@
         <v>228</v>
       </c>
       <c r="E239" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
       <c r="F239" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7256,10 +7268,10 @@
         <v>229</v>
       </c>
       <c r="E240" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
       <c r="F240" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7276,10 +7288,10 @@
         <v>230</v>
       </c>
       <c r="E241" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
       <c r="F241" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7296,10 +7308,10 @@
         <v>231</v>
       </c>
       <c r="E242" t="s">
-        <v>522</v>
+        <v>525</v>
       </c>
       <c r="F242" t="s">
-        <v>673</v>
+        <v>677</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7316,10 +7328,10 @@
         <v>232</v>
       </c>
       <c r="E243" t="s">
-        <v>523</v>
+        <v>526</v>
       </c>
       <c r="F243" t="s">
-        <v>674</v>
+        <v>678</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7336,10 +7348,10 @@
         <v>233</v>
       </c>
       <c r="E244" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="F244" t="s">
-        <v>524</v>
+        <v>527</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -7356,10 +7368,10 @@
         <v>234</v>
       </c>
       <c r="E245" t="s">
-        <v>525</v>
+        <v>528</v>
       </c>
       <c r="F245" t="s">
-        <v>675</v>
+        <v>679</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -7376,10 +7388,10 @@
         <v>235</v>
       </c>
       <c r="E246" t="s">
-        <v>526</v>
+        <v>529</v>
       </c>
       <c r="F246" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7396,10 +7408,10 @@
         <v>236</v>
       </c>
       <c r="E247" t="s">
-        <v>527</v>
+        <v>530</v>
       </c>
       <c r="F247" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7416,10 +7428,10 @@
         <v>237</v>
       </c>
       <c r="E248" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="F248" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7436,10 +7448,10 @@
         <v>238</v>
       </c>
       <c r="E249" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
       <c r="F249" t="s">
-        <v>529</v>
+        <v>532</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7456,10 +7468,10 @@
         <v>239</v>
       </c>
       <c r="E250" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
       <c r="F250" t="s">
-        <v>530</v>
+        <v>533</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7536,10 +7548,10 @@
         <v>145</v>
       </c>
       <c r="E254" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="F254" t="s">
-        <v>638</v>
+        <v>642</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7556,10 +7568,10 @@
         <v>243</v>
       </c>
       <c r="E255" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="F255" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7576,10 +7588,10 @@
         <v>244</v>
       </c>
       <c r="E256" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="F256" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7596,10 +7608,10 @@
         <v>245</v>
       </c>
       <c r="E257" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="F257" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7616,10 +7628,10 @@
         <v>246</v>
       </c>
       <c r="E258" t="s">
-        <v>534</v>
+        <v>537</v>
       </c>
       <c r="F258" t="s">
-        <v>678</v>
+        <v>682</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7656,10 +7668,10 @@
         <v>248</v>
       </c>
       <c r="E260" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
       <c r="F260" t="s">
-        <v>679</v>
+        <v>683</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7676,10 +7688,10 @@
         <v>249</v>
       </c>
       <c r="E261" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="F261" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7696,10 +7708,10 @@
         <v>160</v>
       </c>
       <c r="E262" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
       <c r="F262" t="s">
-        <v>460</v>
+        <v>463</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7716,10 +7728,10 @@
         <v>188</v>
       </c>
       <c r="E263" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
       <c r="F263" t="s">
-        <v>483</v>
+        <v>486</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7736,10 +7748,10 @@
         <v>69</v>
       </c>
       <c r="E264" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="F264" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7756,10 +7768,10 @@
         <v>197</v>
       </c>
       <c r="E265" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
       <c r="F265" t="s">
-        <v>492</v>
+        <v>495</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7776,10 +7788,10 @@
         <v>27</v>
       </c>
       <c r="E266" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="F266" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7796,10 +7808,10 @@
         <v>250</v>
       </c>
       <c r="E267" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
       <c r="F267" t="s">
-        <v>680</v>
+        <v>684</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7816,10 +7828,10 @@
         <v>91</v>
       </c>
       <c r="E268" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="F268" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7836,10 +7848,10 @@
         <v>251</v>
       </c>
       <c r="E269" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
       <c r="F269" t="s">
-        <v>681</v>
+        <v>685</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7856,10 +7868,10 @@
         <v>252</v>
       </c>
       <c r="E270" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
       <c r="F270" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7876,10 +7888,10 @@
         <v>115</v>
       </c>
       <c r="E271" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="F271" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7896,10 +7908,10 @@
         <v>253</v>
       </c>
       <c r="E272" t="s">
-        <v>540</v>
+        <v>543</v>
       </c>
       <c r="F272" t="s">
-        <v>682</v>
+        <v>686</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7916,10 +7928,10 @@
         <v>254</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>544</v>
       </c>
       <c r="F273" t="s">
-        <v>683</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7936,10 +7948,10 @@
         <v>255</v>
       </c>
       <c r="E274" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
       <c r="F274" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7956,10 +7968,10 @@
         <v>256</v>
       </c>
       <c r="E275" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
       <c r="F275" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7976,7 +7988,7 @@
         <v>257</v>
       </c>
       <c r="E276" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
       <c r="F276" t="s">
         <v>257</v>
@@ -8016,10 +8028,10 @@
         <v>259</v>
       </c>
       <c r="E278" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
       <c r="F278" t="s">
-        <v>545</v>
+        <v>548</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8036,10 +8048,10 @@
         <v>260</v>
       </c>
       <c r="E279" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
       <c r="F279" t="s">
-        <v>684</v>
+        <v>688</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8056,10 +8068,10 @@
         <v>261</v>
       </c>
       <c r="E280" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
       <c r="F280" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8076,10 +8088,10 @@
         <v>262</v>
       </c>
       <c r="E281" t="s">
-        <v>548</v>
+        <v>551</v>
       </c>
       <c r="F281" t="s">
-        <v>686</v>
+        <v>690</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8096,10 +8108,10 @@
         <v>263</v>
       </c>
       <c r="E282" t="s">
-        <v>549</v>
+        <v>552</v>
       </c>
       <c r="F282" t="s">
-        <v>687</v>
+        <v>691</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8136,10 +8148,10 @@
         <v>265</v>
       </c>
       <c r="E284" t="s">
-        <v>550</v>
+        <v>553</v>
       </c>
       <c r="F284" t="s">
-        <v>688</v>
+        <v>692</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8156,10 +8168,10 @@
         <v>266</v>
       </c>
       <c r="E285" t="s">
-        <v>551</v>
+        <v>554</v>
       </c>
       <c r="F285" t="s">
-        <v>689</v>
+        <v>693</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8176,10 +8188,10 @@
         <v>174</v>
       </c>
       <c r="E286" t="s">
-        <v>472</v>
+        <v>475</v>
       </c>
       <c r="F286" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8196,10 +8208,10 @@
         <v>146</v>
       </c>
       <c r="E287" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="F287" t="s">
-        <v>639</v>
+        <v>643</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8216,10 +8228,10 @@
         <v>110</v>
       </c>
       <c r="E288" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="F288" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8236,7 +8248,7 @@
         <v>221</v>
       </c>
       <c r="E289" t="s">
-        <v>514</v>
+        <v>517</v>
       </c>
       <c r="F289" t="s">
         <v>221</v>
@@ -8256,10 +8268,10 @@
         <v>267</v>
       </c>
       <c r="E290" t="s">
-        <v>552</v>
+        <v>555</v>
       </c>
       <c r="F290" t="s">
-        <v>690</v>
+        <v>694</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8316,10 +8328,10 @@
         <v>268</v>
       </c>
       <c r="E293" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
       <c r="F293" t="s">
-        <v>553</v>
+        <v>556</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8336,10 +8348,10 @@
         <v>269</v>
       </c>
       <c r="E294" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
       <c r="F294" t="s">
-        <v>554</v>
+        <v>557</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8376,10 +8388,10 @@
         <v>271</v>
       </c>
       <c r="E296" t="s">
-        <v>555</v>
+        <v>558</v>
       </c>
       <c r="F296" t="s">
-        <v>691</v>
+        <v>695</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -8396,10 +8408,10 @@
         <v>272</v>
       </c>
       <c r="E297" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
       <c r="F297" t="s">
-        <v>556</v>
+        <v>559</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -8416,10 +8428,10 @@
         <v>273</v>
       </c>
       <c r="E298" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
       <c r="F298" t="s">
-        <v>557</v>
+        <v>560</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8436,10 +8448,10 @@
         <v>274</v>
       </c>
       <c r="E299" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
       <c r="F299" t="s">
-        <v>558</v>
+        <v>561</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8476,10 +8488,10 @@
         <v>276</v>
       </c>
       <c r="E301" t="s">
-        <v>559</v>
+        <v>562</v>
       </c>
       <c r="F301" t="s">
-        <v>692</v>
+        <v>696</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8496,10 +8508,10 @@
         <v>277</v>
       </c>
       <c r="E302" t="s">
-        <v>560</v>
+        <v>563</v>
       </c>
       <c r="F302" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8576,10 +8588,10 @@
         <v>281</v>
       </c>
       <c r="E306" t="s">
-        <v>561</v>
+        <v>564</v>
       </c>
       <c r="F306" t="s">
-        <v>694</v>
+        <v>698</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -8596,7 +8608,10 @@
         <v>282</v>
       </c>
       <c r="E307" t="s">
-        <v>562</v>
+        <v>565</v>
+      </c>
+      <c r="F307" t="s">
+        <v>565</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8613,7 +8628,7 @@
         <v>283</v>
       </c>
       <c r="E308" t="s">
-        <v>563</v>
+        <v>566</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8630,7 +8645,7 @@
         <v>284</v>
       </c>
       <c r="E309" t="s">
-        <v>564</v>
+        <v>567</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8647,7 +8662,7 @@
         <v>285</v>
       </c>
       <c r="E310" t="s">
-        <v>565</v>
+        <v>568</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8664,7 +8679,7 @@
         <v>286</v>
       </c>
       <c r="E311" t="s">
-        <v>566</v>
+        <v>569</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8681,7 +8696,7 @@
         <v>287</v>
       </c>
       <c r="E312" t="s">
-        <v>567</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8698,7 +8713,7 @@
         <v>288</v>
       </c>
       <c r="E313" t="s">
-        <v>568</v>
+        <v>571</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -8715,7 +8730,7 @@
         <v>289</v>
       </c>
       <c r="E314" t="s">
-        <v>569</v>
+        <v>572</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8732,7 +8747,7 @@
         <v>290</v>
       </c>
       <c r="E315" t="s">
-        <v>570</v>
+        <v>573</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8749,7 +8764,7 @@
         <v>291</v>
       </c>
       <c r="E316" t="s">
-        <v>571</v>
+        <v>574</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8766,7 +8781,7 @@
         <v>292</v>
       </c>
       <c r="E317" t="s">
-        <v>572</v>
+        <v>575</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8783,7 +8798,7 @@
         <v>208</v>
       </c>
       <c r="E318" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8800,7 +8815,7 @@
         <v>293</v>
       </c>
       <c r="E319" t="s">
-        <v>573</v>
+        <v>576</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8817,7 +8832,7 @@
         <v>248</v>
       </c>
       <c r="E320" t="s">
-        <v>535</v>
+        <v>538</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8834,7 +8849,7 @@
         <v>145</v>
       </c>
       <c r="E321" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8851,7 +8866,7 @@
         <v>229</v>
       </c>
       <c r="E322" t="s">
-        <v>520</v>
+        <v>523</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8868,7 +8883,7 @@
         <v>261</v>
       </c>
       <c r="E323" t="s">
-        <v>547</v>
+        <v>550</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8902,7 +8917,7 @@
         <v>294</v>
       </c>
       <c r="E325" t="s">
-        <v>574</v>
+        <v>577</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8919,7 +8934,7 @@
         <v>295</v>
       </c>
       <c r="E326" t="s">
-        <v>575</v>
+        <v>578</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8936,7 +8951,7 @@
         <v>296</v>
       </c>
       <c r="E327" t="s">
-        <v>576</v>
+        <v>579</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8953,7 +8968,7 @@
         <v>297</v>
       </c>
       <c r="E328" t="s">
-        <v>577</v>
+        <v>580</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8970,7 +8985,7 @@
         <v>298</v>
       </c>
       <c r="E329" t="s">
-        <v>578</v>
+        <v>581</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9004,7 +9019,7 @@
         <v>299</v>
       </c>
       <c r="E331" t="s">
-        <v>579</v>
+        <v>582</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9038,7 +9053,7 @@
         <v>301</v>
       </c>
       <c r="E333" t="s">
-        <v>580</v>
+        <v>583</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9055,7 +9070,7 @@
         <v>302</v>
       </c>
       <c r="E334" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9072,7 +9087,7 @@
         <v>303</v>
       </c>
       <c r="E335" t="s">
-        <v>582</v>
+        <v>585</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9088,6 +9103,9 @@
       <c r="D336" t="s">
         <v>304</v>
       </c>
+      <c r="E336" t="s">
+        <v>586</v>
+      </c>
     </row>
     <row r="337" spans="1:4">
       <c r="A337">
@@ -9563,6 +9581,48 @@
       </c>
       <c r="D370" t="s">
         <v>332</v>
+      </c>
+    </row>
+    <row r="371" spans="1:4">
+      <c r="A371">
+        <v>370</v>
+      </c>
+      <c r="B371">
+        <v>5</v>
+      </c>
+      <c r="C371" t="s">
+        <v>16</v>
+      </c>
+      <c r="D371" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="372" spans="1:4">
+      <c r="A372">
+        <v>371</v>
+      </c>
+      <c r="B372">
+        <v>5</v>
+      </c>
+      <c r="C372" t="s">
+        <v>12</v>
+      </c>
+      <c r="D372" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4">
+      <c r="A373">
+        <v>372</v>
+      </c>
+      <c r="B373">
+        <v>4</v>
+      </c>
+      <c r="C373" t="s">
+        <v>24</v>
+      </c>
+      <c r="D373" t="s">
+        <v>335</v>
       </c>
     </row>
   </sheetData>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1391" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="702">
   <si>
     <t>collectionNo</t>
   </si>
@@ -1024,6 +1024,12 @@
     <t>テノチティトラン</t>
   </si>
   <si>
+    <t>ククルカン</t>
+  </si>
+  <si>
+    <t>女教皇ヨハンナ</t>
+  </si>
+  <si>
     <t>瑪修·基列萊特</t>
   </si>
   <si>
@@ -1775,6 +1781,9 @@
   </si>
   <si>
     <t>赫費斯提翁</t>
+  </si>
+  <si>
+    <t>馬納南·麥克·利爾〔巴澤特〕</t>
   </si>
   <si>
     <t>瑪修．基利艾拉特</t>
@@ -2468,7 +2477,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F373"/>
+  <dimension ref="A1:F375"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2508,10 +2517,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="F2" t="s">
-        <v>587</v>
+        <v>590</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2528,10 +2537,10 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F3" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2548,10 +2557,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F4" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2568,10 +2577,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="F5" t="s">
-        <v>590</v>
+        <v>593</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2588,10 +2597,10 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F6" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2608,10 +2617,10 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="F7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2628,10 +2637,10 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F8" t="s">
-        <v>592</v>
+        <v>595</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2648,10 +2657,10 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="F9" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2668,10 +2677,10 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F10" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2688,10 +2697,10 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>594</v>
+        <v>597</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2708,10 +2717,10 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>595</v>
+        <v>598</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2728,10 +2737,10 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F13" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2748,10 +2757,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="F14" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2768,10 +2777,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="F15" t="s">
-        <v>596</v>
+        <v>599</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2788,10 +2797,10 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="F16" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2808,10 +2817,10 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F17" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2828,10 +2837,10 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F18" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2848,10 +2857,10 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="F19" t="s">
-        <v>598</v>
+        <v>601</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2868,10 +2877,10 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="F20" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2888,10 +2897,10 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="F21" t="s">
-        <v>599</v>
+        <v>602</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2908,10 +2917,10 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="F22" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2928,10 +2937,10 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="F23" t="s">
-        <v>600</v>
+        <v>603</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2948,10 +2957,10 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="F24" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2968,10 +2977,10 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="F25" t="s">
-        <v>601</v>
+        <v>604</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -2988,10 +2997,10 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F26" t="s">
-        <v>602</v>
+        <v>605</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3008,10 +3017,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="F27" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3048,10 +3057,10 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="F29" t="s">
-        <v>362</v>
+        <v>364</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3068,10 +3077,10 @@
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F30" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3088,10 +3097,10 @@
         <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F31" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3108,10 +3117,10 @@
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="F32" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3128,10 +3137,10 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="F33" t="s">
-        <v>593</v>
+        <v>596</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3148,10 +3157,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="F34" t="s">
-        <v>605</v>
+        <v>608</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3168,10 +3177,10 @@
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="F35" t="s">
-        <v>606</v>
+        <v>609</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3188,10 +3197,10 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="F36" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3208,10 +3217,10 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="F37" t="s">
-        <v>607</v>
+        <v>610</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3228,10 +3237,10 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="F38" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3248,10 +3257,10 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="F39" t="s">
-        <v>597</v>
+        <v>600</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3268,10 +3277,10 @@
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="F40" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3288,10 +3297,10 @@
         <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="F41" t="s">
-        <v>608</v>
+        <v>611</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3308,10 +3317,10 @@
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="F42" t="s">
-        <v>609</v>
+        <v>612</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3328,7 +3337,7 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -3348,10 +3357,10 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="F44" t="s">
-        <v>610</v>
+        <v>613</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3368,10 +3377,10 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="F45" t="s">
-        <v>611</v>
+        <v>614</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3388,10 +3397,10 @@
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="F46" t="s">
-        <v>612</v>
+        <v>615</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3408,10 +3417,10 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F47" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3428,10 +3437,10 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="F48" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3448,10 +3457,10 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F49" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3468,7 +3477,7 @@
         <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F50" t="s">
         <v>72</v>
@@ -3488,10 +3497,10 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="F51" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3528,10 +3537,10 @@
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F53" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3548,10 +3557,10 @@
         <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="F54" t="s">
-        <v>613</v>
+        <v>616</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3568,10 +3577,10 @@
         <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="F55" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3588,10 +3597,10 @@
         <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="F56" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3608,10 +3617,10 @@
         <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F57" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3628,10 +3637,10 @@
         <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="F58" t="s">
-        <v>614</v>
+        <v>617</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3648,10 +3657,10 @@
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="F59" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3668,10 +3677,10 @@
         <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F60" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3688,10 +3697,10 @@
         <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="F61" t="s">
-        <v>615</v>
+        <v>618</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3708,10 +3717,10 @@
         <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="F62" t="s">
-        <v>616</v>
+        <v>619</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3728,10 +3737,10 @@
         <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F63" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3748,10 +3757,10 @@
         <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="F64" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3768,10 +3777,10 @@
         <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="F65" t="s">
-        <v>617</v>
+        <v>620</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3788,10 +3797,10 @@
         <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="F66" t="s">
-        <v>618</v>
+        <v>621</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3808,10 +3817,10 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F67" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3828,10 +3837,10 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="F68" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3848,10 +3857,10 @@
         <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F69" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3888,10 +3897,10 @@
         <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F71" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3908,10 +3917,10 @@
         <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F72" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3928,10 +3937,10 @@
         <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="F73" t="s">
-        <v>622</v>
+        <v>625</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3948,10 +3957,10 @@
         <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="F74" t="s">
-        <v>623</v>
+        <v>626</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3968,10 +3977,10 @@
         <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="F75" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -3988,10 +3997,10 @@
         <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="F76" t="s">
-        <v>624</v>
+        <v>627</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4008,10 +4017,10 @@
         <v>99</v>
       </c>
       <c r="E77" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F77" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4028,10 +4037,10 @@
         <v>100</v>
       </c>
       <c r="E78" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="F78" t="s">
-        <v>625</v>
+        <v>628</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4048,10 +4057,10 @@
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F79" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4068,10 +4077,10 @@
         <v>101</v>
       </c>
       <c r="E80" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F80" t="s">
-        <v>626</v>
+        <v>629</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4088,10 +4097,10 @@
         <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="F81" t="s">
-        <v>627</v>
+        <v>630</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4108,10 +4117,10 @@
         <v>103</v>
       </c>
       <c r="E82" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="F82" t="s">
-        <v>628</v>
+        <v>631</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4128,10 +4137,10 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F83" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4148,10 +4157,10 @@
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F84" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4168,10 +4177,10 @@
         <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="F85" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4188,10 +4197,10 @@
         <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="F86" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4208,10 +4217,10 @@
         <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="F87" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4228,10 +4237,10 @@
         <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="F88" t="s">
-        <v>629</v>
+        <v>632</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4248,10 +4257,10 @@
         <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F89" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4268,10 +4277,10 @@
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="F90" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4288,10 +4297,10 @@
         <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="F91" t="s">
-        <v>630</v>
+        <v>633</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4308,10 +4317,10 @@
         <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F92" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4328,10 +4337,10 @@
         <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="F93" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4368,10 +4377,10 @@
         <v>115</v>
       </c>
       <c r="E95" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F95" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4388,10 +4397,10 @@
         <v>116</v>
       </c>
       <c r="E96" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="F96" t="s">
-        <v>631</v>
+        <v>634</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4408,10 +4417,10 @@
         <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="F97" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4428,10 +4437,10 @@
         <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="F98" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4448,10 +4457,10 @@
         <v>119</v>
       </c>
       <c r="E99" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="F99" t="s">
-        <v>632</v>
+        <v>635</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4468,10 +4477,10 @@
         <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F100" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4488,10 +4497,10 @@
         <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F101" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4508,10 +4517,10 @@
         <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="F102" t="s">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4548,10 +4557,10 @@
         <v>124</v>
       </c>
       <c r="E104" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="F104" t="s">
-        <v>634</v>
+        <v>637</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4568,10 +4577,10 @@
         <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="F105" t="s">
-        <v>430</v>
+        <v>432</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4588,10 +4597,10 @@
         <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="F106" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4608,10 +4617,10 @@
         <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F107" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4628,10 +4637,10 @@
         <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="F108" t="s">
-        <v>635</v>
+        <v>638</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4648,10 +4657,10 @@
         <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="F109" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4668,10 +4677,10 @@
         <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>435</v>
+        <v>437</v>
       </c>
       <c r="F110" t="s">
-        <v>636</v>
+        <v>639</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4688,10 +4697,10 @@
         <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="F111" t="s">
-        <v>637</v>
+        <v>640</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4708,10 +4717,10 @@
         <v>132</v>
       </c>
       <c r="E112" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="F112" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4728,10 +4737,10 @@
         <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F113" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4748,10 +4757,10 @@
         <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="F114" t="s">
-        <v>638</v>
+        <v>641</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4768,10 +4777,10 @@
         <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F115" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4848,10 +4857,10 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="F119" t="s">
-        <v>639</v>
+        <v>642</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4868,10 +4877,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F120" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4888,10 +4897,10 @@
         <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F121" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4908,10 +4917,10 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="F122" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4928,10 +4937,10 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="F123" t="s">
-        <v>443</v>
+        <v>445</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4948,10 +4957,10 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="F124" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4968,10 +4977,10 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="F125" t="s">
-        <v>641</v>
+        <v>644</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5008,10 +5017,10 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="F127" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5028,10 +5037,10 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F128" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5048,10 +5057,10 @@
         <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="F129" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5068,10 +5077,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F130" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5088,10 +5097,10 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="F131" t="s">
-        <v>603</v>
+        <v>606</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5108,10 +5117,10 @@
         <v>89</v>
       </c>
       <c r="E132" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="F132" t="s">
-        <v>619</v>
+        <v>622</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5128,10 +5137,10 @@
         <v>99</v>
       </c>
       <c r="E133" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="F133" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5148,10 +5157,10 @@
         <v>93</v>
       </c>
       <c r="E134" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="F134" t="s">
-        <v>620</v>
+        <v>623</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5168,10 +5177,10 @@
         <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="F135" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5188,10 +5197,10 @@
         <v>55</v>
       </c>
       <c r="E136" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="F136" t="s">
-        <v>604</v>
+        <v>607</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5208,10 +5217,10 @@
         <v>146</v>
       </c>
       <c r="E137" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F137" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5228,10 +5237,10 @@
         <v>147</v>
       </c>
       <c r="E138" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="F138" t="s">
-        <v>644</v>
+        <v>647</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5248,10 +5257,10 @@
         <v>148</v>
       </c>
       <c r="E139" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="F139" t="s">
-        <v>645</v>
+        <v>648</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5268,10 +5277,10 @@
         <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="F140" t="s">
-        <v>646</v>
+        <v>649</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5288,10 +5297,10 @@
         <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="F141" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5308,10 +5317,10 @@
         <v>151</v>
       </c>
       <c r="E142" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="F142" t="s">
-        <v>647</v>
+        <v>650</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5328,10 +5337,10 @@
         <v>152</v>
       </c>
       <c r="E143" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F143" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5348,10 +5357,10 @@
         <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="F144" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5368,10 +5377,10 @@
         <v>154</v>
       </c>
       <c r="E145" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F145" t="s">
-        <v>649</v>
+        <v>652</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5388,10 +5397,10 @@
         <v>37</v>
       </c>
       <c r="E146" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="F146" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5408,10 +5417,10 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="F147" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5428,10 +5437,10 @@
         <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F148" t="s">
-        <v>650</v>
+        <v>653</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5448,10 +5457,10 @@
         <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="F149" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5468,10 +5477,10 @@
         <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="F150" t="s">
-        <v>651</v>
+        <v>654</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5488,10 +5497,10 @@
         <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="F151" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5508,10 +5517,10 @@
         <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="F152" t="s">
-        <v>652</v>
+        <v>655</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5528,10 +5537,10 @@
         <v>105</v>
       </c>
       <c r="E153" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="F153" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5548,10 +5557,10 @@
         <v>160</v>
       </c>
       <c r="E154" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F154" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5568,10 +5577,10 @@
         <v>161</v>
       </c>
       <c r="E155" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="F155" t="s">
-        <v>653</v>
+        <v>656</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5588,10 +5597,10 @@
         <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="F156" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5608,10 +5617,10 @@
         <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="F157" t="s">
-        <v>654</v>
+        <v>657</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5628,10 +5637,10 @@
         <v>164</v>
       </c>
       <c r="E158" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="F158" t="s">
-        <v>655</v>
+        <v>658</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5648,10 +5657,10 @@
         <v>165</v>
       </c>
       <c r="E159" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="F159" t="s">
-        <v>656</v>
+        <v>659</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5688,10 +5697,10 @@
         <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="F161" t="s">
-        <v>657</v>
+        <v>660</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5708,10 +5717,10 @@
         <v>168</v>
       </c>
       <c r="E162" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="F162" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5728,10 +5737,10 @@
         <v>169</v>
       </c>
       <c r="E163" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="F163" t="s">
-        <v>471</v>
+        <v>473</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5748,10 +5757,10 @@
         <v>170</v>
       </c>
       <c r="E164" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="F164" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5768,10 +5777,10 @@
         <v>171</v>
       </c>
       <c r="E165" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="F165" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5808,10 +5817,10 @@
         <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F167" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5828,10 +5837,10 @@
         <v>174</v>
       </c>
       <c r="E168" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F168" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5848,10 +5857,10 @@
         <v>175</v>
       </c>
       <c r="E169" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="F169" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5868,10 +5877,10 @@
         <v>176</v>
       </c>
       <c r="E170" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="F170" t="s">
-        <v>659</v>
+        <v>662</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5888,7 +5897,7 @@
         <v>177</v>
       </c>
       <c r="E171" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="F171" t="s">
         <v>177</v>
@@ -5908,10 +5917,10 @@
         <v>178</v>
       </c>
       <c r="E172" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="F172" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5928,10 +5937,10 @@
         <v>179</v>
       </c>
       <c r="E173" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="F173" t="s">
-        <v>660</v>
+        <v>663</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5948,10 +5957,10 @@
         <v>180</v>
       </c>
       <c r="E174" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="F174" t="s">
-        <v>661</v>
+        <v>664</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5968,10 +5977,10 @@
         <v>181</v>
       </c>
       <c r="E175" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="F175" t="s">
-        <v>662</v>
+        <v>665</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -5988,10 +5997,10 @@
         <v>30</v>
       </c>
       <c r="E176" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="F176" t="s">
-        <v>591</v>
+        <v>594</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6008,10 +6017,10 @@
         <v>104</v>
       </c>
       <c r="E177" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="F177" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6028,10 +6037,10 @@
         <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="F178" t="s">
-        <v>640</v>
+        <v>643</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6068,10 +6077,10 @@
         <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="F180" t="s">
-        <v>589</v>
+        <v>592</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6088,10 +6097,10 @@
         <v>121</v>
       </c>
       <c r="E181" t="s">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="F181" t="s">
-        <v>633</v>
+        <v>636</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6108,10 +6117,10 @@
         <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="F182" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6128,10 +6137,10 @@
         <v>152</v>
       </c>
       <c r="E183" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="F183" t="s">
-        <v>648</v>
+        <v>651</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6148,10 +6157,10 @@
         <v>182</v>
       </c>
       <c r="E184" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="F184" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6208,10 +6217,10 @@
         <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="F187" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6248,10 +6257,10 @@
         <v>187</v>
       </c>
       <c r="E189" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="F189" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6268,10 +6277,10 @@
         <v>188</v>
       </c>
       <c r="E190" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F190" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6288,10 +6297,10 @@
         <v>189</v>
       </c>
       <c r="E191" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="F191" t="s">
-        <v>663</v>
+        <v>666</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6308,10 +6317,10 @@
         <v>190</v>
       </c>
       <c r="E192" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="F192" t="s">
-        <v>664</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6328,10 +6337,10 @@
         <v>191</v>
       </c>
       <c r="E193" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="F193" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6348,7 +6357,7 @@
         <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="F194" t="s">
         <v>192</v>
@@ -6368,10 +6377,10 @@
         <v>193</v>
       </c>
       <c r="E195" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="F195" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6388,10 +6397,10 @@
         <v>194</v>
       </c>
       <c r="E196" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="F196" t="s">
-        <v>665</v>
+        <v>668</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6408,10 +6417,10 @@
         <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="F197" t="s">
-        <v>493</v>
+        <v>495</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6428,10 +6437,10 @@
         <v>196</v>
       </c>
       <c r="E198" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="F198" t="s">
-        <v>666</v>
+        <v>669</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6448,10 +6457,10 @@
         <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F199" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6468,10 +6477,10 @@
         <v>198</v>
       </c>
       <c r="E200" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="F200" t="s">
-        <v>496</v>
+        <v>498</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6488,10 +6497,10 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="F201" t="s">
-        <v>497</v>
+        <v>499</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6508,10 +6517,10 @@
         <v>200</v>
       </c>
       <c r="E202" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="F202" t="s">
-        <v>667</v>
+        <v>670</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6528,10 +6537,10 @@
         <v>201</v>
       </c>
       <c r="E203" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="F203" t="s">
-        <v>668</v>
+        <v>671</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6548,10 +6557,10 @@
         <v>202</v>
       </c>
       <c r="E204" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="F204" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6568,10 +6577,10 @@
         <v>203</v>
       </c>
       <c r="E205" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="F205" t="s">
-        <v>669</v>
+        <v>672</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6588,10 +6597,10 @@
         <v>204</v>
       </c>
       <c r="E206" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="F206" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6608,10 +6617,10 @@
         <v>205</v>
       </c>
       <c r="E207" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="F207" t="s">
-        <v>670</v>
+        <v>673</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6628,10 +6637,10 @@
         <v>206</v>
       </c>
       <c r="E208" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="F208" t="s">
-        <v>671</v>
+        <v>674</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6648,10 +6657,10 @@
         <v>207</v>
       </c>
       <c r="E209" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="F209" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6668,10 +6677,10 @@
         <v>208</v>
       </c>
       <c r="E210" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="F210" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6688,10 +6697,10 @@
         <v>209</v>
       </c>
       <c r="E211" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="F211" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6728,10 +6737,10 @@
         <v>211</v>
       </c>
       <c r="E213" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="F213" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6748,10 +6757,10 @@
         <v>212</v>
       </c>
       <c r="E214" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="F214" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6768,10 +6777,10 @@
         <v>213</v>
       </c>
       <c r="E215" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="F215" t="s">
-        <v>672</v>
+        <v>675</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6788,10 +6797,10 @@
         <v>214</v>
       </c>
       <c r="E216" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="F216" t="s">
-        <v>673</v>
+        <v>676</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6808,10 +6817,10 @@
         <v>82</v>
       </c>
       <c r="E217" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F217" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6868,10 +6877,10 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="F220" t="s">
-        <v>432</v>
+        <v>434</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6888,10 +6897,10 @@
         <v>173</v>
       </c>
       <c r="E221" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="F221" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6908,10 +6917,10 @@
         <v>120</v>
       </c>
       <c r="E222" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="F222" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6928,10 +6937,10 @@
         <v>215</v>
       </c>
       <c r="E223" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="F223" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6948,10 +6957,10 @@
         <v>94</v>
       </c>
       <c r="E224" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="F224" t="s">
-        <v>621</v>
+        <v>624</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6968,10 +6977,10 @@
         <v>216</v>
       </c>
       <c r="E225" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="F225" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -6988,10 +6997,10 @@
         <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="F226" t="s">
-        <v>438</v>
+        <v>440</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7008,7 +7017,7 @@
         <v>217</v>
       </c>
       <c r="E227" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="F227" t="s">
         <v>217</v>
@@ -7048,7 +7057,7 @@
         <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="F229" t="s">
         <v>219</v>
@@ -7068,7 +7077,7 @@
         <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="F230" t="s">
         <v>220</v>
@@ -7088,7 +7097,7 @@
         <v>221</v>
       </c>
       <c r="E231" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F231" t="s">
         <v>221</v>
@@ -7108,10 +7117,10 @@
         <v>222</v>
       </c>
       <c r="E232" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
       <c r="F232" t="s">
-        <v>674</v>
+        <v>677</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7128,10 +7137,10 @@
         <v>223</v>
       </c>
       <c r="E233" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="F233" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7148,10 +7157,10 @@
         <v>224</v>
       </c>
       <c r="E234" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="F234" t="s">
-        <v>675</v>
+        <v>678</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7208,10 +7217,10 @@
         <v>226</v>
       </c>
       <c r="E237" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="F237" t="s">
-        <v>676</v>
+        <v>679</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7248,10 +7257,10 @@
         <v>228</v>
       </c>
       <c r="E239" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="F239" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7268,10 +7277,10 @@
         <v>229</v>
       </c>
       <c r="E240" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="F240" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7288,10 +7297,10 @@
         <v>230</v>
       </c>
       <c r="E241" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
       <c r="F241" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7308,10 +7317,10 @@
         <v>231</v>
       </c>
       <c r="E242" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="F242" t="s">
-        <v>677</v>
+        <v>680</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7328,10 +7337,10 @@
         <v>232</v>
       </c>
       <c r="E243" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
       <c r="F243" t="s">
-        <v>678</v>
+        <v>681</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7348,10 +7357,10 @@
         <v>233</v>
       </c>
       <c r="E244" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
       <c r="F244" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -7368,10 +7377,10 @@
         <v>234</v>
       </c>
       <c r="E245" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="F245" t="s">
-        <v>679</v>
+        <v>682</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -7388,10 +7397,10 @@
         <v>235</v>
       </c>
       <c r="E246" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
       <c r="F246" t="s">
-        <v>680</v>
+        <v>683</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7408,10 +7417,10 @@
         <v>236</v>
       </c>
       <c r="E247" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="F247" t="s">
-        <v>681</v>
+        <v>684</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7428,10 +7437,10 @@
         <v>237</v>
       </c>
       <c r="E248" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="F248" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7448,10 +7457,10 @@
         <v>238</v>
       </c>
       <c r="E249" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="F249" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7468,10 +7477,10 @@
         <v>239</v>
       </c>
       <c r="E250" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="F250" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7548,10 +7557,10 @@
         <v>145</v>
       </c>
       <c r="E254" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="F254" t="s">
-        <v>642</v>
+        <v>645</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7568,10 +7577,10 @@
         <v>243</v>
       </c>
       <c r="E255" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="F255" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7588,10 +7597,10 @@
         <v>244</v>
       </c>
       <c r="E256" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="F256" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7608,10 +7617,10 @@
         <v>245</v>
       </c>
       <c r="E257" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
       <c r="F257" t="s">
-        <v>536</v>
+        <v>538</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7628,10 +7637,10 @@
         <v>246</v>
       </c>
       <c r="E258" t="s">
-        <v>537</v>
+        <v>539</v>
       </c>
       <c r="F258" t="s">
-        <v>682</v>
+        <v>685</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7668,10 +7677,10 @@
         <v>248</v>
       </c>
       <c r="E260" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
       <c r="F260" t="s">
-        <v>683</v>
+        <v>686</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7688,10 +7697,10 @@
         <v>249</v>
       </c>
       <c r="E261" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
       <c r="F261" t="s">
-        <v>539</v>
+        <v>541</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7708,10 +7717,10 @@
         <v>160</v>
       </c>
       <c r="E262" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="F262" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7728,10 +7737,10 @@
         <v>188</v>
       </c>
       <c r="E263" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="F263" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7748,10 +7757,10 @@
         <v>69</v>
       </c>
       <c r="E264" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="F264" t="s">
-        <v>378</v>
+        <v>380</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7768,10 +7777,10 @@
         <v>197</v>
       </c>
       <c r="E265" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="F265" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7788,10 +7797,10 @@
         <v>27</v>
       </c>
       <c r="E266" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F266" t="s">
-        <v>588</v>
+        <v>591</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7808,10 +7817,10 @@
         <v>250</v>
       </c>
       <c r="E267" t="s">
-        <v>540</v>
+        <v>542</v>
       </c>
       <c r="F267" t="s">
-        <v>684</v>
+        <v>687</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7828,10 +7837,10 @@
         <v>91</v>
       </c>
       <c r="E268" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F268" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7848,10 +7857,10 @@
         <v>251</v>
       </c>
       <c r="E269" t="s">
-        <v>541</v>
+        <v>543</v>
       </c>
       <c r="F269" t="s">
-        <v>685</v>
+        <v>688</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7868,10 +7877,10 @@
         <v>252</v>
       </c>
       <c r="E270" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
       <c r="F270" t="s">
-        <v>542</v>
+        <v>544</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7888,10 +7897,10 @@
         <v>115</v>
       </c>
       <c r="E271" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="F271" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7908,10 +7917,10 @@
         <v>253</v>
       </c>
       <c r="E272" t="s">
-        <v>543</v>
+        <v>545</v>
       </c>
       <c r="F272" t="s">
-        <v>686</v>
+        <v>689</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7928,10 +7937,10 @@
         <v>254</v>
       </c>
       <c r="E273" t="s">
-        <v>544</v>
+        <v>546</v>
       </c>
       <c r="F273" t="s">
-        <v>687</v>
+        <v>690</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7948,10 +7957,10 @@
         <v>255</v>
       </c>
       <c r="E274" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
       <c r="F274" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7968,10 +7977,10 @@
         <v>256</v>
       </c>
       <c r="E275" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -7988,7 +7997,7 @@
         <v>257</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
       <c r="F276" t="s">
         <v>257</v>
@@ -8028,10 +8037,10 @@
         <v>259</v>
       </c>
       <c r="E278" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
       <c r="F278" t="s">
-        <v>548</v>
+        <v>550</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8048,10 +8057,10 @@
         <v>260</v>
       </c>
       <c r="E279" t="s">
-        <v>549</v>
+        <v>551</v>
       </c>
       <c r="F279" t="s">
-        <v>688</v>
+        <v>691</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8068,10 +8077,10 @@
         <v>261</v>
       </c>
       <c r="E280" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
       <c r="F280" t="s">
-        <v>689</v>
+        <v>692</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8088,10 +8097,10 @@
         <v>262</v>
       </c>
       <c r="E281" t="s">
-        <v>551</v>
+        <v>553</v>
       </c>
       <c r="F281" t="s">
-        <v>690</v>
+        <v>693</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8108,10 +8117,10 @@
         <v>263</v>
       </c>
       <c r="E282" t="s">
-        <v>552</v>
+        <v>554</v>
       </c>
       <c r="F282" t="s">
-        <v>691</v>
+        <v>694</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8148,10 +8157,10 @@
         <v>265</v>
       </c>
       <c r="E284" t="s">
-        <v>553</v>
+        <v>555</v>
       </c>
       <c r="F284" t="s">
-        <v>692</v>
+        <v>695</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8168,10 +8177,10 @@
         <v>266</v>
       </c>
       <c r="E285" t="s">
-        <v>554</v>
+        <v>556</v>
       </c>
       <c r="F285" t="s">
-        <v>693</v>
+        <v>696</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8188,10 +8197,10 @@
         <v>174</v>
       </c>
       <c r="E286" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="F286" t="s">
-        <v>658</v>
+        <v>661</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8208,10 +8217,10 @@
         <v>146</v>
       </c>
       <c r="E287" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="F287" t="s">
-        <v>643</v>
+        <v>646</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8228,10 +8237,10 @@
         <v>110</v>
       </c>
       <c r="E288" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F288" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8248,7 +8257,7 @@
         <v>221</v>
       </c>
       <c r="E289" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="F289" t="s">
         <v>221</v>
@@ -8268,10 +8277,10 @@
         <v>267</v>
       </c>
       <c r="E290" t="s">
-        <v>555</v>
+        <v>557</v>
       </c>
       <c r="F290" t="s">
-        <v>694</v>
+        <v>697</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8328,10 +8337,10 @@
         <v>268</v>
       </c>
       <c r="E293" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
       <c r="F293" t="s">
-        <v>556</v>
+        <v>558</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8348,10 +8357,10 @@
         <v>269</v>
       </c>
       <c r="E294" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
       <c r="F294" t="s">
-        <v>557</v>
+        <v>559</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8388,10 +8397,10 @@
         <v>271</v>
       </c>
       <c r="E296" t="s">
-        <v>558</v>
+        <v>560</v>
       </c>
       <c r="F296" t="s">
-        <v>695</v>
+        <v>698</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -8408,10 +8417,10 @@
         <v>272</v>
       </c>
       <c r="E297" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F297" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -8428,10 +8437,10 @@
         <v>273</v>
       </c>
       <c r="E298" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
       <c r="F298" t="s">
-        <v>560</v>
+        <v>562</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8448,10 +8457,10 @@
         <v>274</v>
       </c>
       <c r="E299" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
       <c r="F299" t="s">
-        <v>561</v>
+        <v>563</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8488,10 +8497,10 @@
         <v>276</v>
       </c>
       <c r="E301" t="s">
-        <v>562</v>
+        <v>564</v>
       </c>
       <c r="F301" t="s">
-        <v>696</v>
+        <v>699</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8508,10 +8517,10 @@
         <v>277</v>
       </c>
       <c r="E302" t="s">
-        <v>563</v>
+        <v>565</v>
       </c>
       <c r="F302" t="s">
-        <v>697</v>
+        <v>700</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8588,10 +8597,10 @@
         <v>281</v>
       </c>
       <c r="E306" t="s">
-        <v>564</v>
+        <v>566</v>
       </c>
       <c r="F306" t="s">
-        <v>698</v>
+        <v>701</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -8608,10 +8617,10 @@
         <v>282</v>
       </c>
       <c r="E307" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
       <c r="F307" t="s">
-        <v>565</v>
+        <v>567</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8628,7 +8637,7 @@
         <v>283</v>
       </c>
       <c r="E308" t="s">
-        <v>566</v>
+        <v>568</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8645,7 +8654,7 @@
         <v>284</v>
       </c>
       <c r="E309" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8662,7 +8671,7 @@
         <v>285</v>
       </c>
       <c r="E310" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8679,7 +8688,7 @@
         <v>286</v>
       </c>
       <c r="E311" t="s">
-        <v>569</v>
+        <v>571</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8696,7 +8705,7 @@
         <v>287</v>
       </c>
       <c r="E312" t="s">
-        <v>570</v>
+        <v>572</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8713,7 +8722,7 @@
         <v>288</v>
       </c>
       <c r="E313" t="s">
-        <v>571</v>
+        <v>573</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -8730,7 +8739,7 @@
         <v>289</v>
       </c>
       <c r="E314" t="s">
-        <v>572</v>
+        <v>574</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8747,7 +8756,7 @@
         <v>290</v>
       </c>
       <c r="E315" t="s">
-        <v>573</v>
+        <v>575</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8764,7 +8773,7 @@
         <v>291</v>
       </c>
       <c r="E316" t="s">
-        <v>574</v>
+        <v>576</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8781,7 +8790,7 @@
         <v>292</v>
       </c>
       <c r="E317" t="s">
-        <v>575</v>
+        <v>577</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8798,7 +8807,7 @@
         <v>208</v>
       </c>
       <c r="E318" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8815,7 +8824,7 @@
         <v>293</v>
       </c>
       <c r="E319" t="s">
-        <v>576</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8832,7 +8841,7 @@
         <v>248</v>
       </c>
       <c r="E320" t="s">
-        <v>538</v>
+        <v>540</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8849,7 +8858,7 @@
         <v>145</v>
       </c>
       <c r="E321" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8866,7 +8875,7 @@
         <v>229</v>
       </c>
       <c r="E322" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8883,7 +8892,7 @@
         <v>261</v>
       </c>
       <c r="E323" t="s">
-        <v>550</v>
+        <v>552</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8917,7 +8926,7 @@
         <v>294</v>
       </c>
       <c r="E325" t="s">
-        <v>577</v>
+        <v>579</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8934,7 +8943,7 @@
         <v>295</v>
       </c>
       <c r="E326" t="s">
-        <v>578</v>
+        <v>580</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8951,7 +8960,7 @@
         <v>296</v>
       </c>
       <c r="E327" t="s">
-        <v>579</v>
+        <v>581</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8968,7 +8977,7 @@
         <v>297</v>
       </c>
       <c r="E328" t="s">
-        <v>580</v>
+        <v>582</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -8985,7 +8994,7 @@
         <v>298</v>
       </c>
       <c r="E329" t="s">
-        <v>581</v>
+        <v>583</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9019,7 +9028,7 @@
         <v>299</v>
       </c>
       <c r="E331" t="s">
-        <v>582</v>
+        <v>584</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9053,7 +9062,7 @@
         <v>301</v>
       </c>
       <c r="E333" t="s">
-        <v>583</v>
+        <v>585</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9070,7 +9079,7 @@
         <v>302</v>
       </c>
       <c r="E334" t="s">
-        <v>584</v>
+        <v>586</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9087,7 +9096,7 @@
         <v>303</v>
       </c>
       <c r="E335" t="s">
-        <v>585</v>
+        <v>587</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9104,10 +9113,10 @@
         <v>304</v>
       </c>
       <c r="E336" t="s">
-        <v>586</v>
-      </c>
-    </row>
-    <row r="337" spans="1:4">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5">
       <c r="A337">
         <v>336</v>
       </c>
@@ -9120,8 +9129,11 @@
       <c r="D337" t="s">
         <v>305</v>
       </c>
-    </row>
-    <row r="338" spans="1:4">
+      <c r="E337" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5">
       <c r="A338">
         <v>337</v>
       </c>
@@ -9135,7 +9147,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:5">
       <c r="A339">
         <v>338</v>
       </c>
@@ -9149,7 +9161,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:5">
       <c r="A340">
         <v>339</v>
       </c>
@@ -9163,7 +9175,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:5">
       <c r="A341">
         <v>340</v>
       </c>
@@ -9177,7 +9189,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:5">
       <c r="A342">
         <v>341</v>
       </c>
@@ -9191,7 +9203,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:5">
       <c r="A343">
         <v>342</v>
       </c>
@@ -9205,7 +9217,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:5">
       <c r="A344">
         <v>343</v>
       </c>
@@ -9219,7 +9231,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:5">
       <c r="A345">
         <v>344</v>
       </c>
@@ -9233,7 +9245,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:5">
       <c r="A346">
         <v>345</v>
       </c>
@@ -9247,7 +9259,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:5">
       <c r="A347">
         <v>346</v>
       </c>
@@ -9261,7 +9273,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:5">
       <c r="A348">
         <v>347</v>
       </c>
@@ -9275,7 +9287,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:5">
       <c r="A349">
         <v>348</v>
       </c>
@@ -9289,7 +9301,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:5">
       <c r="A350">
         <v>349</v>
       </c>
@@ -9303,7 +9315,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:5">
       <c r="A351">
         <v>350</v>
       </c>
@@ -9317,7 +9329,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:5">
       <c r="A352">
         <v>351</v>
       </c>
@@ -9623,6 +9635,34 @@
       </c>
       <c r="D373" t="s">
         <v>335</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4">
+      <c r="A374">
+        <v>373</v>
+      </c>
+      <c r="B374">
+        <v>5</v>
+      </c>
+      <c r="C374" t="s">
+        <v>22</v>
+      </c>
+      <c r="D374" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4">
+      <c r="A375">
+        <v>374</v>
+      </c>
+      <c r="B375">
+        <v>5</v>
+      </c>
+      <c r="C375" t="s">
+        <v>14</v>
+      </c>
+      <c r="D375" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1396" uniqueCount="702">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="703">
   <si>
     <t>collectionNo</t>
   </si>
@@ -2120,6 +2120,9 @@
   </si>
   <si>
     <t>埃莫〔卡蓮〕</t>
+  </si>
+  <si>
+    <t>Ms.克蘭</t>
   </si>
 </sst>
 </file>
@@ -8639,6 +8642,9 @@
       <c r="E308" t="s">
         <v>568</v>
       </c>
+      <c r="F308" t="s">
+        <v>702</v>
+      </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309">
@@ -8654,6 +8660,9 @@
         <v>284</v>
       </c>
       <c r="E309" t="s">
+        <v>569</v>
+      </c>
+      <c r="F309" t="s">
         <v>569</v>
       </c>
     </row>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1398" uniqueCount="703">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1400" uniqueCount="704">
   <si>
     <t>collectionNo</t>
   </si>
@@ -1028,6 +1028,9 @@
   </si>
   <si>
     <t>女教皇ヨハンナ</t>
+  </si>
+  <si>
+    <t>高杉晋作</t>
   </si>
   <si>
     <t>瑪修·基列萊特</t>
@@ -2480,7 +2483,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F375"/>
+  <dimension ref="A1:F376"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2520,10 +2523,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F2" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2540,10 +2543,10 @@
         <v>27</v>
       </c>
       <c r="E3" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F3" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2560,10 +2563,10 @@
         <v>28</v>
       </c>
       <c r="E4" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F4" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2580,10 +2583,10 @@
         <v>29</v>
       </c>
       <c r="E5" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F5" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2600,10 +2603,10 @@
         <v>30</v>
       </c>
       <c r="E6" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F6" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2620,10 +2623,10 @@
         <v>31</v>
       </c>
       <c r="E7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="F7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2640,10 +2643,10 @@
         <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="F8" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2660,10 +2663,10 @@
         <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="F9" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2680,10 +2683,10 @@
         <v>34</v>
       </c>
       <c r="E10" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F10" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2700,10 +2703,10 @@
         <v>35</v>
       </c>
       <c r="E11" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2720,10 +2723,10 @@
         <v>36</v>
       </c>
       <c r="E12" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -2740,10 +2743,10 @@
         <v>37</v>
       </c>
       <c r="E13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F13" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -2760,10 +2763,10 @@
         <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="F14" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -2780,10 +2783,10 @@
         <v>39</v>
       </c>
       <c r="E15" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F15" t="s">
-        <v>599</v>
+        <v>600</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -2800,10 +2803,10 @@
         <v>40</v>
       </c>
       <c r="E16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="F16" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -2820,10 +2823,10 @@
         <v>41</v>
       </c>
       <c r="E17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="F17" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -2840,10 +2843,10 @@
         <v>42</v>
       </c>
       <c r="E18" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F18" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -2860,10 +2863,10 @@
         <v>43</v>
       </c>
       <c r="E19" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="F19" t="s">
-        <v>601</v>
+        <v>602</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -2880,10 +2883,10 @@
         <v>44</v>
       </c>
       <c r="E20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="F20" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -2900,10 +2903,10 @@
         <v>45</v>
       </c>
       <c r="E21" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="F21" t="s">
-        <v>602</v>
+        <v>603</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -2920,10 +2923,10 @@
         <v>46</v>
       </c>
       <c r="E22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="F22" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -2940,10 +2943,10 @@
         <v>47</v>
       </c>
       <c r="E23" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="F23" t="s">
-        <v>603</v>
+        <v>604</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -2960,10 +2963,10 @@
         <v>48</v>
       </c>
       <c r="E24" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="F24" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -2980,10 +2983,10 @@
         <v>49</v>
       </c>
       <c r="E25" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F25" t="s">
-        <v>604</v>
+        <v>605</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3000,10 +3003,10 @@
         <v>50</v>
       </c>
       <c r="E26" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="F26" t="s">
-        <v>605</v>
+        <v>606</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -3020,10 +3023,10 @@
         <v>51</v>
       </c>
       <c r="E27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F27" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -3060,10 +3063,10 @@
         <v>53</v>
       </c>
       <c r="E29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F29" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -3080,10 +3083,10 @@
         <v>54</v>
       </c>
       <c r="E30" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F30" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -3100,10 +3103,10 @@
         <v>55</v>
       </c>
       <c r="E31" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F31" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -3120,10 +3123,10 @@
         <v>56</v>
       </c>
       <c r="E32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="F32" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -3140,10 +3143,10 @@
         <v>34</v>
       </c>
       <c r="E33" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F33" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -3160,10 +3163,10 @@
         <v>57</v>
       </c>
       <c r="E34" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F34" t="s">
-        <v>608</v>
+        <v>609</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -3180,10 +3183,10 @@
         <v>58</v>
       </c>
       <c r="E35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="F35" t="s">
-        <v>609</v>
+        <v>610</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -3200,10 +3203,10 @@
         <v>59</v>
       </c>
       <c r="E36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="F36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -3220,10 +3223,10 @@
         <v>60</v>
       </c>
       <c r="E37" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F37" t="s">
-        <v>610</v>
+        <v>611</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -3240,10 +3243,10 @@
         <v>61</v>
       </c>
       <c r="E38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="F38" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -3260,10 +3263,10 @@
         <v>42</v>
       </c>
       <c r="E39" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F39" t="s">
-        <v>600</v>
+        <v>601</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -3280,10 +3283,10 @@
         <v>62</v>
       </c>
       <c r="E40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="F40" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -3300,10 +3303,10 @@
         <v>63</v>
       </c>
       <c r="E41" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="F41" t="s">
-        <v>611</v>
+        <v>612</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -3320,10 +3323,10 @@
         <v>64</v>
       </c>
       <c r="E42" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="F42" t="s">
-        <v>612</v>
+        <v>613</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -3340,7 +3343,7 @@
         <v>65</v>
       </c>
       <c r="E43" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="F43" t="s">
         <v>65</v>
@@ -3360,10 +3363,10 @@
         <v>66</v>
       </c>
       <c r="E44" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F44" t="s">
-        <v>613</v>
+        <v>614</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -3380,10 +3383,10 @@
         <v>67</v>
       </c>
       <c r="E45" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="F45" t="s">
-        <v>614</v>
+        <v>615</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -3400,10 +3403,10 @@
         <v>68</v>
       </c>
       <c r="E46" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="F46" t="s">
-        <v>615</v>
+        <v>616</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -3420,10 +3423,10 @@
         <v>69</v>
       </c>
       <c r="E47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F47" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -3440,10 +3443,10 @@
         <v>70</v>
       </c>
       <c r="E48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="F48" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -3460,10 +3463,10 @@
         <v>71</v>
       </c>
       <c r="E49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F49" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -3480,7 +3483,7 @@
         <v>72</v>
       </c>
       <c r="E50" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="F50" t="s">
         <v>72</v>
@@ -3500,10 +3503,10 @@
         <v>73</v>
       </c>
       <c r="E51" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="F51" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -3540,10 +3543,10 @@
         <v>75</v>
       </c>
       <c r="E53" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="F53" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -3560,10 +3563,10 @@
         <v>76</v>
       </c>
       <c r="E54" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="F54" t="s">
-        <v>616</v>
+        <v>617</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -3580,10 +3583,10 @@
         <v>77</v>
       </c>
       <c r="E55" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="F55" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -3600,10 +3603,10 @@
         <v>78</v>
       </c>
       <c r="E56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -3620,10 +3623,10 @@
         <v>79</v>
       </c>
       <c r="E57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F57" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -3640,10 +3643,10 @@
         <v>80</v>
       </c>
       <c r="E58" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F58" t="s">
-        <v>617</v>
+        <v>618</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -3660,10 +3663,10 @@
         <v>81</v>
       </c>
       <c r="E59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="F59" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -3680,10 +3683,10 @@
         <v>82</v>
       </c>
       <c r="E60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F60" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -3700,10 +3703,10 @@
         <v>83</v>
       </c>
       <c r="E61" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="F61" t="s">
-        <v>618</v>
+        <v>619</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -3720,10 +3723,10 @@
         <v>84</v>
       </c>
       <c r="E62" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="F62" t="s">
-        <v>619</v>
+        <v>620</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -3740,10 +3743,10 @@
         <v>85</v>
       </c>
       <c r="E63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F63" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -3760,10 +3763,10 @@
         <v>86</v>
       </c>
       <c r="E64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="F64" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -3780,10 +3783,10 @@
         <v>87</v>
       </c>
       <c r="E65" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="F65" t="s">
-        <v>620</v>
+        <v>621</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -3800,10 +3803,10 @@
         <v>88</v>
       </c>
       <c r="E66" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="F66" t="s">
-        <v>621</v>
+        <v>622</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -3820,10 +3823,10 @@
         <v>89</v>
       </c>
       <c r="E67" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F67" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -3840,10 +3843,10 @@
         <v>90</v>
       </c>
       <c r="E68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="F68" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -3860,10 +3863,10 @@
         <v>91</v>
       </c>
       <c r="E69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F69" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -3900,10 +3903,10 @@
         <v>93</v>
       </c>
       <c r="E71" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F71" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -3920,10 +3923,10 @@
         <v>94</v>
       </c>
       <c r="E72" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F72" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -3940,10 +3943,10 @@
         <v>95</v>
       </c>
       <c r="E73" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="F73" t="s">
-        <v>625</v>
+        <v>626</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -3960,10 +3963,10 @@
         <v>96</v>
       </c>
       <c r="E74" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F74" t="s">
-        <v>626</v>
+        <v>627</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -3980,10 +3983,10 @@
         <v>97</v>
       </c>
       <c r="E75" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="F75" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -4000,10 +4003,10 @@
         <v>98</v>
       </c>
       <c r="E76" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F76" t="s">
-        <v>627</v>
+        <v>628</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -4020,10 +4023,10 @@
         <v>99</v>
       </c>
       <c r="E77" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F77" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -4040,10 +4043,10 @@
         <v>100</v>
       </c>
       <c r="E78" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F78" t="s">
-        <v>628</v>
+        <v>629</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -4060,10 +4063,10 @@
         <v>28</v>
       </c>
       <c r="E79" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F79" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -4080,10 +4083,10 @@
         <v>101</v>
       </c>
       <c r="E80" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="F80" t="s">
-        <v>629</v>
+        <v>630</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -4100,10 +4103,10 @@
         <v>102</v>
       </c>
       <c r="E81" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F81" t="s">
-        <v>630</v>
+        <v>631</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -4120,10 +4123,10 @@
         <v>103</v>
       </c>
       <c r="E82" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="F82" t="s">
-        <v>631</v>
+        <v>632</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -4140,10 +4143,10 @@
         <v>104</v>
       </c>
       <c r="E83" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F83" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -4160,10 +4163,10 @@
         <v>105</v>
       </c>
       <c r="E84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F84" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -4180,10 +4183,10 @@
         <v>106</v>
       </c>
       <c r="E85" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="F85" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -4200,10 +4203,10 @@
         <v>107</v>
       </c>
       <c r="E86" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="F86" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -4220,10 +4223,10 @@
         <v>108</v>
       </c>
       <c r="E87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="F87" t="s">
-        <v>417</v>
+        <v>418</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -4240,10 +4243,10 @@
         <v>109</v>
       </c>
       <c r="E88" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="F88" t="s">
-        <v>632</v>
+        <v>633</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -4260,10 +4263,10 @@
         <v>110</v>
       </c>
       <c r="E89" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F89" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -4280,10 +4283,10 @@
         <v>111</v>
       </c>
       <c r="E90" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="F90" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -4300,10 +4303,10 @@
         <v>112</v>
       </c>
       <c r="E91" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="F91" t="s">
-        <v>633</v>
+        <v>634</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -4320,10 +4323,10 @@
         <v>113</v>
       </c>
       <c r="E92" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F92" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -4340,10 +4343,10 @@
         <v>113</v>
       </c>
       <c r="E93" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="F93" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -4380,10 +4383,10 @@
         <v>115</v>
       </c>
       <c r="E95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F95" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -4400,10 +4403,10 @@
         <v>116</v>
       </c>
       <c r="E96" t="s">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="F96" t="s">
-        <v>634</v>
+        <v>635</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -4420,10 +4423,10 @@
         <v>117</v>
       </c>
       <c r="E97" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="F97" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -4440,10 +4443,10 @@
         <v>118</v>
       </c>
       <c r="E98" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="F98" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -4460,10 +4463,10 @@
         <v>119</v>
       </c>
       <c r="E99" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="F99" t="s">
-        <v>635</v>
+        <v>636</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -4480,10 +4483,10 @@
         <v>120</v>
       </c>
       <c r="E100" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F100" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -4500,10 +4503,10 @@
         <v>121</v>
       </c>
       <c r="E101" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F101" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -4520,10 +4523,10 @@
         <v>122</v>
       </c>
       <c r="E102" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="F102" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -4560,10 +4563,10 @@
         <v>124</v>
       </c>
       <c r="E104" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="F104" t="s">
-        <v>637</v>
+        <v>638</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -4580,10 +4583,10 @@
         <v>125</v>
       </c>
       <c r="E105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="F105" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -4600,10 +4603,10 @@
         <v>126</v>
       </c>
       <c r="E106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="F106" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -4620,10 +4623,10 @@
         <v>127</v>
       </c>
       <c r="E107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F107" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -4640,10 +4643,10 @@
         <v>128</v>
       </c>
       <c r="E108" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="F108" t="s">
-        <v>638</v>
+        <v>639</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -4660,10 +4663,10 @@
         <v>129</v>
       </c>
       <c r="E109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="F109" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -4680,10 +4683,10 @@
         <v>130</v>
       </c>
       <c r="E110" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="F110" t="s">
-        <v>639</v>
+        <v>640</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -4700,10 +4703,10 @@
         <v>131</v>
       </c>
       <c r="E111" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="F111" t="s">
-        <v>640</v>
+        <v>641</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -4720,10 +4723,10 @@
         <v>132</v>
       </c>
       <c r="E112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="F112" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -4740,10 +4743,10 @@
         <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F113" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -4760,10 +4763,10 @@
         <v>134</v>
       </c>
       <c r="E114" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F114" t="s">
-        <v>641</v>
+        <v>642</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -4780,10 +4783,10 @@
         <v>135</v>
       </c>
       <c r="E115" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F115" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -4860,10 +4863,10 @@
         <v>138</v>
       </c>
       <c r="E119" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="F119" t="s">
-        <v>642</v>
+        <v>643</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -4880,10 +4883,10 @@
         <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F120" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -4900,10 +4903,10 @@
         <v>139</v>
       </c>
       <c r="E121" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F121" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -4920,10 +4923,10 @@
         <v>71</v>
       </c>
       <c r="E122" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F122" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -4940,10 +4943,10 @@
         <v>140</v>
       </c>
       <c r="E123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="F123" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -4960,10 +4963,10 @@
         <v>141</v>
       </c>
       <c r="E124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="F124" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -4980,10 +4983,10 @@
         <v>142</v>
       </c>
       <c r="E125" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F125" t="s">
-        <v>644</v>
+        <v>645</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -5020,10 +5023,10 @@
         <v>144</v>
       </c>
       <c r="E127" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="F127" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -5040,10 +5043,10 @@
         <v>145</v>
       </c>
       <c r="E128" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F128" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -5060,10 +5063,10 @@
         <v>85</v>
       </c>
       <c r="E129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="F129" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -5080,10 +5083,10 @@
         <v>27</v>
       </c>
       <c r="E130" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F130" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -5100,10 +5103,10 @@
         <v>54</v>
       </c>
       <c r="E131" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="F131" t="s">
-        <v>606</v>
+        <v>607</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -5120,10 +5123,10 @@
         <v>89</v>
       </c>
       <c r="E132" t="s">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="F132" t="s">
-        <v>622</v>
+        <v>623</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -5140,10 +5143,10 @@
         <v>99</v>
       </c>
       <c r="E133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="F133" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
     </row>
     <row r="134" spans="1:6">
@@ -5160,10 +5163,10 @@
         <v>93</v>
       </c>
       <c r="E134" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="F134" t="s">
-        <v>623</v>
+        <v>624</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -5180,10 +5183,10 @@
         <v>79</v>
       </c>
       <c r="E135" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F135" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -5200,10 +5203,10 @@
         <v>55</v>
       </c>
       <c r="E136" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F136" t="s">
-        <v>607</v>
+        <v>608</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -5220,10 +5223,10 @@
         <v>146</v>
       </c>
       <c r="E137" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F137" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -5240,10 +5243,10 @@
         <v>147</v>
       </c>
       <c r="E138" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F138" t="s">
-        <v>647</v>
+        <v>648</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -5260,10 +5263,10 @@
         <v>148</v>
       </c>
       <c r="E139" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="F139" t="s">
-        <v>648</v>
+        <v>649</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -5280,10 +5283,10 @@
         <v>149</v>
       </c>
       <c r="E140" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F140" t="s">
-        <v>649</v>
+        <v>650</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -5300,10 +5303,10 @@
         <v>150</v>
       </c>
       <c r="E141" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="F141" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -5320,10 +5323,10 @@
         <v>151</v>
       </c>
       <c r="E142" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F142" t="s">
-        <v>650</v>
+        <v>651</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -5340,10 +5343,10 @@
         <v>152</v>
       </c>
       <c r="E143" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F143" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="144" spans="1:6">
@@ -5360,10 +5363,10 @@
         <v>153</v>
       </c>
       <c r="E144" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="F144" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
     </row>
     <row r="145" spans="1:6">
@@ -5380,10 +5383,10 @@
         <v>154</v>
       </c>
       <c r="E145" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="F145" t="s">
-        <v>652</v>
+        <v>653</v>
       </c>
     </row>
     <row r="146" spans="1:6">
@@ -5400,10 +5403,10 @@
         <v>37</v>
       </c>
       <c r="E146" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="F146" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
     </row>
     <row r="147" spans="1:6">
@@ -5420,10 +5423,10 @@
         <v>48</v>
       </c>
       <c r="E147" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="F147" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
     </row>
     <row r="148" spans="1:6">
@@ -5440,10 +5443,10 @@
         <v>155</v>
       </c>
       <c r="E148" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F148" t="s">
-        <v>653</v>
+        <v>654</v>
       </c>
     </row>
     <row r="149" spans="1:6">
@@ -5460,10 +5463,10 @@
         <v>156</v>
       </c>
       <c r="E149" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="F149" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="150" spans="1:6">
@@ -5480,10 +5483,10 @@
         <v>157</v>
       </c>
       <c r="E150" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="F150" t="s">
-        <v>654</v>
+        <v>655</v>
       </c>
     </row>
     <row r="151" spans="1:6">
@@ -5500,10 +5503,10 @@
         <v>158</v>
       </c>
       <c r="E151" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="F151" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
     </row>
     <row r="152" spans="1:6">
@@ -5520,10 +5523,10 @@
         <v>159</v>
       </c>
       <c r="E152" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="F152" t="s">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="153" spans="1:6">
@@ -5540,10 +5543,10 @@
         <v>105</v>
       </c>
       <c r="E153" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="F153" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
     </row>
     <row r="154" spans="1:6">
@@ -5560,10 +5563,10 @@
         <v>160</v>
       </c>
       <c r="E154" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F154" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="155" spans="1:6">
@@ -5580,10 +5583,10 @@
         <v>161</v>
       </c>
       <c r="E155" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="F155" t="s">
-        <v>656</v>
+        <v>657</v>
       </c>
     </row>
     <row r="156" spans="1:6">
@@ -5600,10 +5603,10 @@
         <v>162</v>
       </c>
       <c r="E156" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="F156" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
     </row>
     <row r="157" spans="1:6">
@@ -5620,10 +5623,10 @@
         <v>163</v>
       </c>
       <c r="E157" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="F157" t="s">
-        <v>657</v>
+        <v>658</v>
       </c>
     </row>
     <row r="158" spans="1:6">
@@ -5640,10 +5643,10 @@
         <v>164</v>
       </c>
       <c r="E158" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="F158" t="s">
-        <v>658</v>
+        <v>659</v>
       </c>
     </row>
     <row r="159" spans="1:6">
@@ -5660,10 +5663,10 @@
         <v>165</v>
       </c>
       <c r="E159" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="F159" t="s">
-        <v>659</v>
+        <v>660</v>
       </c>
     </row>
     <row r="160" spans="1:6">
@@ -5700,10 +5703,10 @@
         <v>167</v>
       </c>
       <c r="E161" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="F161" t="s">
-        <v>660</v>
+        <v>661</v>
       </c>
     </row>
     <row r="162" spans="1:6">
@@ -5720,10 +5723,10 @@
         <v>168</v>
       </c>
       <c r="E162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="F162" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
     </row>
     <row r="163" spans="1:6">
@@ -5740,10 +5743,10 @@
         <v>169</v>
       </c>
       <c r="E163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="F163" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="164" spans="1:6">
@@ -5760,10 +5763,10 @@
         <v>170</v>
       </c>
       <c r="E164" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="F164" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
     </row>
     <row r="165" spans="1:6">
@@ -5780,10 +5783,10 @@
         <v>171</v>
       </c>
       <c r="E165" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="F165" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
     </row>
     <row r="166" spans="1:6">
@@ -5820,10 +5823,10 @@
         <v>173</v>
       </c>
       <c r="E167" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F167" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="168" spans="1:6">
@@ -5840,10 +5843,10 @@
         <v>174</v>
       </c>
       <c r="E168" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F168" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="169" spans="1:6">
@@ -5860,10 +5863,10 @@
         <v>175</v>
       </c>
       <c r="E169" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="F169" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
     </row>
     <row r="170" spans="1:6">
@@ -5880,10 +5883,10 @@
         <v>176</v>
       </c>
       <c r="E170" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="F170" t="s">
-        <v>662</v>
+        <v>663</v>
       </c>
     </row>
     <row r="171" spans="1:6">
@@ -5900,7 +5903,7 @@
         <v>177</v>
       </c>
       <c r="E171" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="F171" t="s">
         <v>177</v>
@@ -5920,10 +5923,10 @@
         <v>178</v>
       </c>
       <c r="E172" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="F172" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
     </row>
     <row r="173" spans="1:6">
@@ -5940,10 +5943,10 @@
         <v>179</v>
       </c>
       <c r="E173" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="F173" t="s">
-        <v>663</v>
+        <v>664</v>
       </c>
     </row>
     <row r="174" spans="1:6">
@@ -5960,10 +5963,10 @@
         <v>180</v>
       </c>
       <c r="E174" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="F174" t="s">
-        <v>664</v>
+        <v>665</v>
       </c>
     </row>
     <row r="175" spans="1:6">
@@ -5980,10 +5983,10 @@
         <v>181</v>
       </c>
       <c r="E175" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="F175" t="s">
-        <v>665</v>
+        <v>666</v>
       </c>
     </row>
     <row r="176" spans="1:6">
@@ -6000,10 +6003,10 @@
         <v>30</v>
       </c>
       <c r="E176" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="F176" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
     </row>
     <row r="177" spans="1:6">
@@ -6020,10 +6023,10 @@
         <v>104</v>
       </c>
       <c r="E177" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="F177" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
     </row>
     <row r="178" spans="1:6">
@@ -6040,10 +6043,10 @@
         <v>139</v>
       </c>
       <c r="E178" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="F178" t="s">
-        <v>643</v>
+        <v>644</v>
       </c>
     </row>
     <row r="179" spans="1:6">
@@ -6080,10 +6083,10 @@
         <v>28</v>
       </c>
       <c r="E180" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="F180" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
     </row>
     <row r="181" spans="1:6">
@@ -6100,10 +6103,10 @@
         <v>121</v>
       </c>
       <c r="E181" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="F181" t="s">
-        <v>636</v>
+        <v>637</v>
       </c>
     </row>
     <row r="182" spans="1:6">
@@ -6120,10 +6123,10 @@
         <v>135</v>
       </c>
       <c r="E182" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="F182" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
     </row>
     <row r="183" spans="1:6">
@@ -6140,10 +6143,10 @@
         <v>152</v>
       </c>
       <c r="E183" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="F183" t="s">
-        <v>651</v>
+        <v>652</v>
       </c>
     </row>
     <row r="184" spans="1:6">
@@ -6160,10 +6163,10 @@
         <v>182</v>
       </c>
       <c r="E184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="F184" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
     </row>
     <row r="185" spans="1:6">
@@ -6220,10 +6223,10 @@
         <v>185</v>
       </c>
       <c r="E187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="F187" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
     </row>
     <row r="188" spans="1:6">
@@ -6260,10 +6263,10 @@
         <v>187</v>
       </c>
       <c r="E189" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="F189" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
     </row>
     <row r="190" spans="1:6">
@@ -6280,10 +6283,10 @@
         <v>188</v>
       </c>
       <c r="E190" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F190" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="191" spans="1:6">
@@ -6300,10 +6303,10 @@
         <v>189</v>
       </c>
       <c r="E191" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="F191" t="s">
-        <v>666</v>
+        <v>667</v>
       </c>
     </row>
     <row r="192" spans="1:6">
@@ -6320,10 +6323,10 @@
         <v>190</v>
       </c>
       <c r="E192" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F192" t="s">
-        <v>667</v>
+        <v>668</v>
       </c>
     </row>
     <row r="193" spans="1:6">
@@ -6340,10 +6343,10 @@
         <v>191</v>
       </c>
       <c r="E193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="F193" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
     </row>
     <row r="194" spans="1:6">
@@ -6360,7 +6363,7 @@
         <v>192</v>
       </c>
       <c r="E194" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="F194" t="s">
         <v>192</v>
@@ -6380,10 +6383,10 @@
         <v>193</v>
       </c>
       <c r="E195" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="F195" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
     </row>
     <row r="196" spans="1:6">
@@ -6400,10 +6403,10 @@
         <v>194</v>
       </c>
       <c r="E196" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="F196" t="s">
-        <v>668</v>
+        <v>669</v>
       </c>
     </row>
     <row r="197" spans="1:6">
@@ -6420,10 +6423,10 @@
         <v>195</v>
       </c>
       <c r="E197" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="F197" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
     </row>
     <row r="198" spans="1:6">
@@ -6440,10 +6443,10 @@
         <v>196</v>
       </c>
       <c r="E198" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="F198" t="s">
-        <v>669</v>
+        <v>670</v>
       </c>
     </row>
     <row r="199" spans="1:6">
@@ -6460,10 +6463,10 @@
         <v>197</v>
       </c>
       <c r="E199" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F199" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="200" spans="1:6">
@@ -6480,10 +6483,10 @@
         <v>198</v>
       </c>
       <c r="E200" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="F200" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
     </row>
     <row r="201" spans="1:6">
@@ -6500,10 +6503,10 @@
         <v>199</v>
       </c>
       <c r="E201" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="F201" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
     </row>
     <row r="202" spans="1:6">
@@ -6520,10 +6523,10 @@
         <v>200</v>
       </c>
       <c r="E202" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="F202" t="s">
-        <v>670</v>
+        <v>671</v>
       </c>
     </row>
     <row r="203" spans="1:6">
@@ -6540,10 +6543,10 @@
         <v>201</v>
       </c>
       <c r="E203" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="F203" t="s">
-        <v>671</v>
+        <v>672</v>
       </c>
     </row>
     <row r="204" spans="1:6">
@@ -6560,10 +6563,10 @@
         <v>202</v>
       </c>
       <c r="E204" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="F204" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
     </row>
     <row r="205" spans="1:6">
@@ -6580,10 +6583,10 @@
         <v>203</v>
       </c>
       <c r="E205" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="F205" t="s">
-        <v>672</v>
+        <v>673</v>
       </c>
     </row>
     <row r="206" spans="1:6">
@@ -6600,10 +6603,10 @@
         <v>204</v>
       </c>
       <c r="E206" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="F206" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
     </row>
     <row r="207" spans="1:6">
@@ -6620,10 +6623,10 @@
         <v>205</v>
       </c>
       <c r="E207" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="F207" t="s">
-        <v>673</v>
+        <v>674</v>
       </c>
     </row>
     <row r="208" spans="1:6">
@@ -6640,10 +6643,10 @@
         <v>206</v>
       </c>
       <c r="E208" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="F208" t="s">
-        <v>674</v>
+        <v>675</v>
       </c>
     </row>
     <row r="209" spans="1:6">
@@ -6660,10 +6663,10 @@
         <v>207</v>
       </c>
       <c r="E209" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="F209" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
     </row>
     <row r="210" spans="1:6">
@@ -6680,10 +6683,10 @@
         <v>208</v>
       </c>
       <c r="E210" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="F210" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="211" spans="1:6">
@@ -6700,10 +6703,10 @@
         <v>209</v>
       </c>
       <c r="E211" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="F211" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
     </row>
     <row r="212" spans="1:6">
@@ -6740,10 +6743,10 @@
         <v>211</v>
       </c>
       <c r="E213" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="F213" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
     </row>
     <row r="214" spans="1:6">
@@ -6760,10 +6763,10 @@
         <v>212</v>
       </c>
       <c r="E214" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="F214" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
     </row>
     <row r="215" spans="1:6">
@@ -6780,10 +6783,10 @@
         <v>213</v>
       </c>
       <c r="E215" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="F215" t="s">
-        <v>675</v>
+        <v>676</v>
       </c>
     </row>
     <row r="216" spans="1:6">
@@ -6800,10 +6803,10 @@
         <v>214</v>
       </c>
       <c r="E216" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="F216" t="s">
-        <v>676</v>
+        <v>677</v>
       </c>
     </row>
     <row r="217" spans="1:6">
@@ -6820,10 +6823,10 @@
         <v>82</v>
       </c>
       <c r="E217" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="F217" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
     </row>
     <row r="218" spans="1:6">
@@ -6880,10 +6883,10 @@
         <v>127</v>
       </c>
       <c r="E220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="F220" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
     </row>
     <row r="221" spans="1:6">
@@ -6900,10 +6903,10 @@
         <v>173</v>
       </c>
       <c r="E221" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="F221" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
     </row>
     <row r="222" spans="1:6">
@@ -6920,10 +6923,10 @@
         <v>120</v>
       </c>
       <c r="E222" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="F222" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
     </row>
     <row r="223" spans="1:6">
@@ -6940,10 +6943,10 @@
         <v>215</v>
       </c>
       <c r="E223" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="F223" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
     </row>
     <row r="224" spans="1:6">
@@ -6960,10 +6963,10 @@
         <v>94</v>
       </c>
       <c r="E224" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="F224" t="s">
-        <v>624</v>
+        <v>625</v>
       </c>
     </row>
     <row r="225" spans="1:6">
@@ -6980,10 +6983,10 @@
         <v>216</v>
       </c>
       <c r="E225" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="F225" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
     </row>
     <row r="226" spans="1:6">
@@ -7000,10 +7003,10 @@
         <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
     </row>
     <row r="227" spans="1:6">
@@ -7020,7 +7023,7 @@
         <v>217</v>
       </c>
       <c r="E227" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="F227" t="s">
         <v>217</v>
@@ -7060,7 +7063,7 @@
         <v>219</v>
       </c>
       <c r="E229" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="F229" t="s">
         <v>219</v>
@@ -7080,7 +7083,7 @@
         <v>220</v>
       </c>
       <c r="E230" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="F230" t="s">
         <v>220</v>
@@ -7100,7 +7103,7 @@
         <v>221</v>
       </c>
       <c r="E231" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F231" t="s">
         <v>221</v>
@@ -7120,10 +7123,10 @@
         <v>222</v>
       </c>
       <c r="E232" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="F232" t="s">
-        <v>677</v>
+        <v>678</v>
       </c>
     </row>
     <row r="233" spans="1:6">
@@ -7140,10 +7143,10 @@
         <v>223</v>
       </c>
       <c r="E233" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="F233" t="s">
-        <v>521</v>
+        <v>522</v>
       </c>
     </row>
     <row r="234" spans="1:6">
@@ -7160,10 +7163,10 @@
         <v>224</v>
       </c>
       <c r="E234" t="s">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="F234" t="s">
-        <v>678</v>
+        <v>679</v>
       </c>
     </row>
     <row r="235" spans="1:6">
@@ -7220,10 +7223,10 @@
         <v>226</v>
       </c>
       <c r="E237" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="F237" t="s">
-        <v>679</v>
+        <v>680</v>
       </c>
     </row>
     <row r="238" spans="1:6">
@@ -7260,10 +7263,10 @@
         <v>228</v>
       </c>
       <c r="E239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="F239" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
     </row>
     <row r="240" spans="1:6">
@@ -7280,10 +7283,10 @@
         <v>229</v>
       </c>
       <c r="E240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="F240" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="241" spans="1:6">
@@ -7300,10 +7303,10 @@
         <v>230</v>
       </c>
       <c r="E241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="F241" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
     </row>
     <row r="242" spans="1:6">
@@ -7320,10 +7323,10 @@
         <v>231</v>
       </c>
       <c r="E242" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="F242" t="s">
-        <v>680</v>
+        <v>681</v>
       </c>
     </row>
     <row r="243" spans="1:6">
@@ -7340,10 +7343,10 @@
         <v>232</v>
       </c>
       <c r="E243" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="F243" t="s">
-        <v>681</v>
+        <v>682</v>
       </c>
     </row>
     <row r="244" spans="1:6">
@@ -7360,10 +7363,10 @@
         <v>233</v>
       </c>
       <c r="E244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="F244" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:6">
@@ -7380,10 +7383,10 @@
         <v>234</v>
       </c>
       <c r="E245" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="F245" t="s">
-        <v>682</v>
+        <v>683</v>
       </c>
     </row>
     <row r="246" spans="1:6">
@@ -7400,10 +7403,10 @@
         <v>235</v>
       </c>
       <c r="E246" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="F246" t="s">
-        <v>683</v>
+        <v>684</v>
       </c>
     </row>
     <row r="247" spans="1:6">
@@ -7420,10 +7423,10 @@
         <v>236</v>
       </c>
       <c r="E247" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="F247" t="s">
-        <v>684</v>
+        <v>685</v>
       </c>
     </row>
     <row r="248" spans="1:6">
@@ -7440,10 +7443,10 @@
         <v>237</v>
       </c>
       <c r="E248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="F248" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
     </row>
     <row r="249" spans="1:6">
@@ -7460,10 +7463,10 @@
         <v>238</v>
       </c>
       <c r="E249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="F249" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
     </row>
     <row r="250" spans="1:6">
@@ -7480,10 +7483,10 @@
         <v>239</v>
       </c>
       <c r="E250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="F250" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
     </row>
     <row r="251" spans="1:6">
@@ -7560,10 +7563,10 @@
         <v>145</v>
       </c>
       <c r="E254" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="F254" t="s">
-        <v>645</v>
+        <v>646</v>
       </c>
     </row>
     <row r="255" spans="1:6">
@@ -7580,10 +7583,10 @@
         <v>243</v>
       </c>
       <c r="E255" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="F255" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
     </row>
     <row r="256" spans="1:6">
@@ -7600,10 +7603,10 @@
         <v>244</v>
       </c>
       <c r="E256" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="F256" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
     </row>
     <row r="257" spans="1:6">
@@ -7620,10 +7623,10 @@
         <v>245</v>
       </c>
       <c r="E257" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="F257" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
     </row>
     <row r="258" spans="1:6">
@@ -7640,10 +7643,10 @@
         <v>246</v>
       </c>
       <c r="E258" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="F258" t="s">
-        <v>685</v>
+        <v>686</v>
       </c>
     </row>
     <row r="259" spans="1:6">
@@ -7680,10 +7683,10 @@
         <v>248</v>
       </c>
       <c r="E260" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="F260" t="s">
-        <v>686</v>
+        <v>687</v>
       </c>
     </row>
     <row r="261" spans="1:6">
@@ -7700,10 +7703,10 @@
         <v>249</v>
       </c>
       <c r="E261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="F261" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
     </row>
     <row r="262" spans="1:6">
@@ -7720,10 +7723,10 @@
         <v>160</v>
       </c>
       <c r="E262" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F262" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="263" spans="1:6">
@@ -7740,10 +7743,10 @@
         <v>188</v>
       </c>
       <c r="E263" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="F263" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
     </row>
     <row r="264" spans="1:6">
@@ -7760,10 +7763,10 @@
         <v>69</v>
       </c>
       <c r="E264" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="F264" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
     </row>
     <row r="265" spans="1:6">
@@ -7780,10 +7783,10 @@
         <v>197</v>
       </c>
       <c r="E265" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="F265" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
     </row>
     <row r="266" spans="1:6">
@@ -7800,10 +7803,10 @@
         <v>27</v>
       </c>
       <c r="E266" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="F266" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
     </row>
     <row r="267" spans="1:6">
@@ -7820,10 +7823,10 @@
         <v>250</v>
       </c>
       <c r="E267" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="F267" t="s">
-        <v>687</v>
+        <v>688</v>
       </c>
     </row>
     <row r="268" spans="1:6">
@@ -7840,10 +7843,10 @@
         <v>91</v>
       </c>
       <c r="E268" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="F268" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
     </row>
     <row r="269" spans="1:6">
@@ -7860,10 +7863,10 @@
         <v>251</v>
       </c>
       <c r="E269" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="F269" t="s">
-        <v>688</v>
+        <v>689</v>
       </c>
     </row>
     <row r="270" spans="1:6">
@@ -7880,10 +7883,10 @@
         <v>252</v>
       </c>
       <c r="E270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="F270" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
     </row>
     <row r="271" spans="1:6">
@@ -7900,10 +7903,10 @@
         <v>115</v>
       </c>
       <c r="E271" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="F271" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
     </row>
     <row r="272" spans="1:6">
@@ -7920,10 +7923,10 @@
         <v>253</v>
       </c>
       <c r="E272" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="F272" t="s">
-        <v>689</v>
+        <v>690</v>
       </c>
     </row>
     <row r="273" spans="1:6">
@@ -7940,10 +7943,10 @@
         <v>254</v>
       </c>
       <c r="E273" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="F273" t="s">
-        <v>690</v>
+        <v>691</v>
       </c>
     </row>
     <row r="274" spans="1:6">
@@ -7960,10 +7963,10 @@
         <v>255</v>
       </c>
       <c r="E274" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="F274" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
     </row>
     <row r="275" spans="1:6">
@@ -7980,10 +7983,10 @@
         <v>256</v>
       </c>
       <c r="E275" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="F275" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
     </row>
     <row r="276" spans="1:6">
@@ -8000,7 +8003,7 @@
         <v>257</v>
       </c>
       <c r="E276" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="F276" t="s">
         <v>257</v>
@@ -8040,10 +8043,10 @@
         <v>259</v>
       </c>
       <c r="E278" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="F278" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
     </row>
     <row r="279" spans="1:6">
@@ -8060,10 +8063,10 @@
         <v>260</v>
       </c>
       <c r="E279" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="F279" t="s">
-        <v>691</v>
+        <v>692</v>
       </c>
     </row>
     <row r="280" spans="1:6">
@@ -8080,10 +8083,10 @@
         <v>261</v>
       </c>
       <c r="E280" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="F280" t="s">
-        <v>692</v>
+        <v>693</v>
       </c>
     </row>
     <row r="281" spans="1:6">
@@ -8100,10 +8103,10 @@
         <v>262</v>
       </c>
       <c r="E281" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="F281" t="s">
-        <v>693</v>
+        <v>694</v>
       </c>
     </row>
     <row r="282" spans="1:6">
@@ -8120,10 +8123,10 @@
         <v>263</v>
       </c>
       <c r="E282" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="F282" t="s">
-        <v>694</v>
+        <v>695</v>
       </c>
     </row>
     <row r="283" spans="1:6">
@@ -8160,10 +8163,10 @@
         <v>265</v>
       </c>
       <c r="E284" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="F284" t="s">
-        <v>695</v>
+        <v>696</v>
       </c>
     </row>
     <row r="285" spans="1:6">
@@ -8180,10 +8183,10 @@
         <v>266</v>
       </c>
       <c r="E285" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="F285" t="s">
-        <v>696</v>
+        <v>697</v>
       </c>
     </row>
     <row r="286" spans="1:6">
@@ -8200,10 +8203,10 @@
         <v>174</v>
       </c>
       <c r="E286" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="F286" t="s">
-        <v>661</v>
+        <v>662</v>
       </c>
     </row>
     <row r="287" spans="1:6">
@@ -8220,10 +8223,10 @@
         <v>146</v>
       </c>
       <c r="E287" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="F287" t="s">
-        <v>646</v>
+        <v>647</v>
       </c>
     </row>
     <row r="288" spans="1:6">
@@ -8240,10 +8243,10 @@
         <v>110</v>
       </c>
       <c r="E288" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="F288" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -8260,7 +8263,7 @@
         <v>221</v>
       </c>
       <c r="E289" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="F289" t="s">
         <v>221</v>
@@ -8280,10 +8283,10 @@
         <v>267</v>
       </c>
       <c r="E290" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="F290" t="s">
-        <v>697</v>
+        <v>698</v>
       </c>
     </row>
     <row r="291" spans="1:6">
@@ -8340,10 +8343,10 @@
         <v>268</v>
       </c>
       <c r="E293" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="F293" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
     </row>
     <row r="294" spans="1:6">
@@ -8360,10 +8363,10 @@
         <v>269</v>
       </c>
       <c r="E294" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="F294" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
     </row>
     <row r="295" spans="1:6">
@@ -8400,10 +8403,10 @@
         <v>271</v>
       </c>
       <c r="E296" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="F296" t="s">
-        <v>698</v>
+        <v>699</v>
       </c>
     </row>
     <row r="297" spans="1:6">
@@ -8420,10 +8423,10 @@
         <v>272</v>
       </c>
       <c r="E297" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="F297" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
     </row>
     <row r="298" spans="1:6">
@@ -8440,10 +8443,10 @@
         <v>273</v>
       </c>
       <c r="E298" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="F298" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
     </row>
     <row r="299" spans="1:6">
@@ -8460,10 +8463,10 @@
         <v>274</v>
       </c>
       <c r="E299" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="F299" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
     </row>
     <row r="300" spans="1:6">
@@ -8500,10 +8503,10 @@
         <v>276</v>
       </c>
       <c r="E301" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="F301" t="s">
-        <v>699</v>
+        <v>700</v>
       </c>
     </row>
     <row r="302" spans="1:6">
@@ -8520,10 +8523,10 @@
         <v>277</v>
       </c>
       <c r="E302" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="F302" t="s">
-        <v>700</v>
+        <v>701</v>
       </c>
     </row>
     <row r="303" spans="1:6">
@@ -8600,10 +8603,10 @@
         <v>281</v>
       </c>
       <c r="E306" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="F306" t="s">
-        <v>701</v>
+        <v>702</v>
       </c>
     </row>
     <row r="307" spans="1:6">
@@ -8620,10 +8623,10 @@
         <v>282</v>
       </c>
       <c r="E307" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="F307" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
     </row>
     <row r="308" spans="1:6">
@@ -8640,10 +8643,10 @@
         <v>283</v>
       </c>
       <c r="E308" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="F308" t="s">
-        <v>702</v>
+        <v>703</v>
       </c>
     </row>
     <row r="309" spans="1:6">
@@ -8660,10 +8663,10 @@
         <v>284</v>
       </c>
       <c r="E309" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="F309" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
     </row>
     <row r="310" spans="1:6">
@@ -8680,7 +8683,7 @@
         <v>285</v>
       </c>
       <c r="E310" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
     </row>
     <row r="311" spans="1:6">
@@ -8697,7 +8700,7 @@
         <v>286</v>
       </c>
       <c r="E311" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
     </row>
     <row r="312" spans="1:6">
@@ -8714,7 +8717,7 @@
         <v>287</v>
       </c>
       <c r="E312" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
     </row>
     <row r="313" spans="1:6">
@@ -8731,7 +8734,7 @@
         <v>288</v>
       </c>
       <c r="E313" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
     </row>
     <row r="314" spans="1:6">
@@ -8748,7 +8751,7 @@
         <v>289</v>
       </c>
       <c r="E314" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
     </row>
     <row r="315" spans="1:6">
@@ -8765,7 +8768,7 @@
         <v>290</v>
       </c>
       <c r="E315" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316" spans="1:6">
@@ -8782,7 +8785,7 @@
         <v>291</v>
       </c>
       <c r="E316" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
     </row>
     <row r="317" spans="1:6">
@@ -8799,7 +8802,7 @@
         <v>292</v>
       </c>
       <c r="E317" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
     </row>
     <row r="318" spans="1:6">
@@ -8816,7 +8819,7 @@
         <v>208</v>
       </c>
       <c r="E318" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
     </row>
     <row r="319" spans="1:6">
@@ -8833,7 +8836,7 @@
         <v>293</v>
       </c>
       <c r="E319" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
     </row>
     <row r="320" spans="1:6">
@@ -8850,7 +8853,7 @@
         <v>248</v>
       </c>
       <c r="E320" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
     </row>
     <row r="321" spans="1:5">
@@ -8867,7 +8870,7 @@
         <v>145</v>
       </c>
       <c r="E321" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
     </row>
     <row r="322" spans="1:5">
@@ -8884,7 +8887,7 @@
         <v>229</v>
       </c>
       <c r="E322" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
     </row>
     <row r="323" spans="1:5">
@@ -8901,7 +8904,7 @@
         <v>261</v>
       </c>
       <c r="E323" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
     </row>
     <row r="324" spans="1:5">
@@ -8935,7 +8938,7 @@
         <v>294</v>
       </c>
       <c r="E325" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
     </row>
     <row r="326" spans="1:5">
@@ -8952,7 +8955,7 @@
         <v>295</v>
       </c>
       <c r="E326" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
     </row>
     <row r="327" spans="1:5">
@@ -8969,7 +8972,7 @@
         <v>296</v>
       </c>
       <c r="E327" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
     </row>
     <row r="328" spans="1:5">
@@ -8986,7 +8989,7 @@
         <v>297</v>
       </c>
       <c r="E328" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
     </row>
     <row r="329" spans="1:5">
@@ -9003,7 +9006,7 @@
         <v>298</v>
       </c>
       <c r="E329" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
     </row>
     <row r="330" spans="1:5">
@@ -9037,7 +9040,7 @@
         <v>299</v>
       </c>
       <c r="E331" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
     </row>
     <row r="332" spans="1:5">
@@ -9071,7 +9074,7 @@
         <v>301</v>
       </c>
       <c r="E333" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
     </row>
     <row r="334" spans="1:5">
@@ -9088,7 +9091,7 @@
         <v>302</v>
       </c>
       <c r="E334" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
     </row>
     <row r="335" spans="1:5">
@@ -9105,7 +9108,7 @@
         <v>303</v>
       </c>
       <c r="E335" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
     </row>
     <row r="336" spans="1:5">
@@ -9122,7 +9125,7 @@
         <v>304</v>
       </c>
       <c r="E336" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
     </row>
     <row r="337" spans="1:5">
@@ -9139,7 +9142,7 @@
         <v>305</v>
       </c>
       <c r="E337" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
     </row>
     <row r="338" spans="1:5">
@@ -9672,6 +9675,20 @@
       </c>
       <c r="D375" t="s">
         <v>337</v>
+      </c>
+    </row>
+    <row r="376" spans="1:4">
+      <c r="A376">
+        <v>375</v>
+      </c>
+      <c r="B376">
+        <v>5</v>
+      </c>
+      <c r="C376" t="s">
+        <v>8</v>
+      </c>
+      <c r="D376" t="s">
+        <v>338</v>
       </c>
     </row>
   </sheetData>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F377"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9195,7 +9195,11 @@
           <t>梅柳齊娜</t>
         </is>
       </c>
-      <c r="F313" t="inlineStr"/>
+      <c r="F313" t="inlineStr">
+        <is>
+          <t>美露莘</t>
+        </is>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="n">
@@ -9219,7 +9223,11 @@
           <t>珀西瓦爾</t>
         </is>
       </c>
-      <c r="F314" t="inlineStr"/>
+      <c r="F314" t="inlineStr">
+        <is>
+          <t>帕西瓦爾</t>
+        </is>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="n">
@@ -10580,6 +10588,66 @@
       </c>
       <c r="E377" t="inlineStr"/>
       <c r="F377" t="inlineStr"/>
+    </row>
+    <row r="378">
+      <c r="A378" t="n">
+        <v>377</v>
+      </c>
+      <c r="B378" t="n">
+        <v>5</v>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>Atlasunmappedclass</t>
+        </is>
+      </c>
+      <c r="D378" t="inlineStr">
+        <is>
+          <t>ソドムズビースト／ドラコー</t>
+        </is>
+      </c>
+      <c r="E378" t="inlineStr"/>
+      <c r="F378" t="inlineStr"/>
+    </row>
+    <row r="379">
+      <c r="A379" t="n">
+        <v>378</v>
+      </c>
+      <c r="B379" t="n">
+        <v>4</v>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D379" t="inlineStr">
+        <is>
+          <t>ロクスタ</t>
+        </is>
+      </c>
+      <c r="E379" t="inlineStr"/>
+      <c r="F379" t="inlineStr"/>
+    </row>
+    <row r="380">
+      <c r="A380" t="n">
+        <v>379</v>
+      </c>
+      <c r="B380" t="n">
+        <v>4</v>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D380" t="inlineStr">
+        <is>
+          <t>セタンタ</t>
+        </is>
+      </c>
+      <c r="E380" t="inlineStr"/>
+      <c r="F380" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9251,7 +9251,11 @@
           <t>光之高揚斯卡婭</t>
         </is>
       </c>
-      <c r="F315" t="inlineStr"/>
+      <c r="F315" t="inlineStr">
+        <is>
+          <t>光之高揚斯卡婭</t>
+        </is>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="n">
@@ -9275,7 +9279,11 @@
           <t>哈貝特洛特</t>
         </is>
       </c>
-      <c r="F316" t="inlineStr"/>
+      <c r="F316" t="inlineStr">
+        <is>
+          <t>哈貝特洛特</t>
+        </is>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="n">
@@ -9299,7 +9307,11 @@
           <t>奧伯龍</t>
         </is>
       </c>
-      <c r="F317" t="inlineStr"/>
+      <c r="F317" t="inlineStr">
+        <is>
+          <t>奧伯隆</t>
+        </is>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="n">
@@ -9846,7 +9858,11 @@
           <t>スーパーバニヤン</t>
         </is>
       </c>
-      <c r="E340" t="inlineStr"/>
+      <c r="E340" t="inlineStr">
+        <is>
+          <t>超級班揚</t>
+        </is>
+      </c>
       <c r="F340" t="inlineStr"/>
     </row>
     <row r="341">
@@ -9866,7 +9882,11 @@
           <t>大黒天</t>
         </is>
       </c>
-      <c r="E341" t="inlineStr"/>
+      <c r="E341" t="inlineStr">
+        <is>
+          <t>大黑天</t>
+        </is>
+      </c>
       <c r="F341" t="inlineStr"/>
     </row>
     <row r="342">
@@ -9886,7 +9906,11 @@
           <t>メアリー・アニング</t>
         </is>
       </c>
-      <c r="E342" t="inlineStr"/>
+      <c r="E342" t="inlineStr">
+        <is>
+          <t>瑪麗·安寧</t>
+        </is>
+      </c>
       <c r="F342" t="inlineStr"/>
     </row>
     <row r="343">
@@ -9906,7 +9930,11 @@
           <t>コンスタンティノス11世</t>
         </is>
       </c>
-      <c r="E343" t="inlineStr"/>
+      <c r="E343" t="inlineStr">
+        <is>
+          <t>君士坦丁十一世</t>
+        </is>
+      </c>
       <c r="F343" t="inlineStr"/>
     </row>
     <row r="344">
@@ -10598,7 +10626,7 @@
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Atlasunmappedclass</t>
+          <t>Beast</t>
         </is>
       </c>
       <c r="D378" t="inlineStr">
@@ -10648,6 +10676,26 @@
       </c>
       <c r="E380" t="inlineStr"/>
       <c r="F380" t="inlineStr"/>
+    </row>
+    <row r="381">
+      <c r="A381" t="n">
+        <v>380</v>
+      </c>
+      <c r="B381" t="n">
+        <v>5</v>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>Assassin</t>
+        </is>
+      </c>
+      <c r="D381" t="inlineStr">
+        <is>
+          <t>果心居士</t>
+        </is>
+      </c>
+      <c r="E381" t="inlineStr"/>
+      <c r="F381" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F381"/>
+  <dimension ref="A1:F384"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9335,7 +9335,11 @@
           <t>沖田總司〔Alter〕</t>
         </is>
       </c>
-      <c r="F318" t="inlineStr"/>
+      <c r="F318" t="inlineStr">
+        <is>
+          <t>沖田總司〔Alter〕</t>
+        </is>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="n">
@@ -9359,7 +9363,11 @@
           <t>阿納斯塔西婭＆維</t>
         </is>
       </c>
-      <c r="F319" t="inlineStr"/>
+      <c r="F319" t="inlineStr">
+        <is>
+          <t>安娜塔西亞＆Viy</t>
+        </is>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="n">
@@ -9383,7 +9391,11 @@
           <t>夏洛特·科黛</t>
         </is>
       </c>
-      <c r="F320" t="inlineStr"/>
+      <c r="F320" t="inlineStr">
+        <is>
+          <t>夏洛特．科黛</t>
+        </is>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="n">
@@ -9407,7 +9419,11 @@
           <t>萊昂納多·達·芬奇</t>
         </is>
       </c>
-      <c r="F321" t="inlineStr"/>
+      <c r="F321" t="inlineStr">
+        <is>
+          <t>李奧納多．達．文西</t>
+        </is>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="n">
@@ -9431,7 +9447,11 @@
           <t>迦摩</t>
         </is>
       </c>
-      <c r="F322" t="inlineStr"/>
+      <c r="F322" t="inlineStr">
+        <is>
+          <t>迦摩</t>
+        </is>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="n">
@@ -9455,7 +9475,11 @@
           <t>凱妮斯</t>
         </is>
       </c>
-      <c r="F323" t="inlineStr"/>
+      <c r="F323" t="inlineStr">
+        <is>
+          <t>凱妮絲</t>
+        </is>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="n">
@@ -9479,7 +9503,11 @@
           <t>清少納言</t>
         </is>
       </c>
-      <c r="F324" t="inlineStr"/>
+      <c r="F324" t="inlineStr">
+        <is>
+          <t>清少納言</t>
+        </is>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="n">
@@ -9954,7 +9982,11 @@
           <t>シャルルマーニュ</t>
         </is>
       </c>
-      <c r="E344" t="inlineStr"/>
+      <c r="E344" t="inlineStr">
+        <is>
+          <t>查理曼</t>
+        </is>
+      </c>
       <c r="F344" t="inlineStr"/>
     </row>
     <row r="345">
@@ -9974,7 +10006,11 @@
           <t>ローラン</t>
         </is>
       </c>
-      <c r="E345" t="inlineStr"/>
+      <c r="E345" t="inlineStr">
+        <is>
+          <t>羅蘭</t>
+        </is>
+      </c>
       <c r="F345" t="inlineStr"/>
     </row>
     <row r="346">
@@ -9994,7 +10030,11 @@
           <t>クリームヒルト</t>
         </is>
       </c>
-      <c r="E346" t="inlineStr"/>
+      <c r="E346" t="inlineStr">
+        <is>
+          <t>克里姆希爾德</t>
+        </is>
+      </c>
       <c r="F346" t="inlineStr"/>
     </row>
     <row r="347">
@@ -10014,7 +10054,11 @@
           <t>ジェームズ・モリアーティ</t>
         </is>
       </c>
-      <c r="E347" t="inlineStr"/>
+      <c r="E347" t="inlineStr">
+        <is>
+          <t>詹姆斯·莫里亞蒂</t>
+        </is>
+      </c>
       <c r="F347" t="inlineStr"/>
     </row>
     <row r="348">
@@ -10034,7 +10078,11 @@
           <t>ドン・キホーテ</t>
         </is>
       </c>
-      <c r="E348" t="inlineStr"/>
+      <c r="E348" t="inlineStr">
+        <is>
+          <t>堂·吉訶德</t>
+        </is>
+      </c>
       <c r="F348" t="inlineStr"/>
     </row>
     <row r="349">
@@ -10054,7 +10102,11 @@
           <t>張角</t>
         </is>
       </c>
-      <c r="E349" t="inlineStr"/>
+      <c r="E349" t="inlineStr">
+        <is>
+          <t>張角</t>
+        </is>
+      </c>
       <c r="F349" t="inlineStr"/>
     </row>
     <row r="350">
@@ -10696,6 +10748,66 @@
       </c>
       <c r="E381" t="inlineStr"/>
       <c r="F381" t="inlineStr"/>
+    </row>
+    <row r="382">
+      <c r="A382" t="n">
+        <v>381</v>
+      </c>
+      <c r="B382" t="n">
+        <v>5</v>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>Lancer</t>
+        </is>
+      </c>
+      <c r="D382" t="inlineStr">
+        <is>
+          <t>ビーマ</t>
+        </is>
+      </c>
+      <c r="E382" t="inlineStr"/>
+      <c r="F382" t="inlineStr"/>
+    </row>
+    <row r="383">
+      <c r="A383" t="n">
+        <v>382</v>
+      </c>
+      <c r="B383" t="n">
+        <v>4</v>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D383" t="inlineStr">
+        <is>
+          <t>ドゥリーヨダナ</t>
+        </is>
+      </c>
+      <c r="E383" t="inlineStr"/>
+      <c r="F383" t="inlineStr"/>
+    </row>
+    <row r="384">
+      <c r="A384" t="n">
+        <v>383</v>
+      </c>
+      <c r="B384" t="n">
+        <v>5</v>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D384" t="inlineStr">
+        <is>
+          <t>ドゥルガー</t>
+        </is>
+      </c>
+      <c r="E384" t="inlineStr"/>
+      <c r="F384" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F384"/>
+  <dimension ref="A1:F386"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10126,7 +10126,11 @@
           <t>曲亭馬琴</t>
         </is>
       </c>
-      <c r="E350" t="inlineStr"/>
+      <c r="E350" t="inlineStr">
+        <is>
+          <t>曲亭馬琴</t>
+        </is>
+      </c>
       <c r="F350" t="inlineStr"/>
     </row>
     <row r="351">
@@ -10146,7 +10150,11 @@
           <t>源為朝</t>
         </is>
       </c>
-      <c r="E351" t="inlineStr"/>
+      <c r="E351" t="inlineStr">
+        <is>
+          <t>源爲朝</t>
+        </is>
+      </c>
       <c r="F351" t="inlineStr"/>
     </row>
     <row r="352">
@@ -10808,6 +10816,46 @@
       </c>
       <c r="E384" t="inlineStr"/>
       <c r="F384" t="inlineStr"/>
+    </row>
+    <row r="385">
+      <c r="A385" t="n">
+        <v>384</v>
+      </c>
+      <c r="B385" t="n">
+        <v>5</v>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D385" t="inlineStr">
+        <is>
+          <t>メドゥーサ</t>
+        </is>
+      </c>
+      <c r="E385" t="inlineStr"/>
+      <c r="F385" t="inlineStr"/>
+    </row>
+    <row r="386">
+      <c r="A386" t="n">
+        <v>385</v>
+      </c>
+      <c r="B386" t="n">
+        <v>5</v>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D386" t="inlineStr">
+        <is>
+          <t>雨の魔女トネリコ</t>
+        </is>
+      </c>
+      <c r="E386" t="inlineStr"/>
+      <c r="F386" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F386"/>
+  <dimension ref="A1:F394"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9531,7 +9531,11 @@
           <t>雅克·德·莫萊</t>
         </is>
       </c>
-      <c r="F325" t="inlineStr"/>
+      <c r="F325" t="inlineStr">
+        <is>
+          <t>雅克．德．莫萊</t>
+        </is>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="n">
@@ -9555,7 +9559,11 @@
           <t>芝諾比阿</t>
         </is>
       </c>
-      <c r="F326" t="inlineStr"/>
+      <c r="F326" t="inlineStr">
+        <is>
+          <t>潔諾比亞</t>
+        </is>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="n">
@@ -9579,7 +9587,11 @@
           <t>伊麗莎白·巴托里〔灰姑娘〕</t>
         </is>
       </c>
-      <c r="F327" t="inlineStr"/>
+      <c r="F327" t="inlineStr">
+        <is>
+          <t>伊莉莎白．巴托里〔Cinderella〕</t>
+        </is>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="n">
@@ -9603,7 +9615,11 @@
           <t>出雲阿國</t>
         </is>
       </c>
-      <c r="F328" t="inlineStr"/>
+      <c r="F328" t="inlineStr">
+        <is>
+          <t>出雲阿國</t>
+        </is>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="n">
@@ -9627,7 +9643,11 @@
           <t>謎之蘭丸X</t>
         </is>
       </c>
-      <c r="F329" t="inlineStr"/>
+      <c r="F329" t="inlineStr">
+        <is>
+          <t>謎之蘭丸X</t>
+        </is>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="n">
@@ -9651,7 +9671,11 @@
           <t>坂本龍馬</t>
         </is>
       </c>
-      <c r="F330" t="inlineStr"/>
+      <c r="F330" t="inlineStr">
+        <is>
+          <t>坂本龍馬</t>
+        </is>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="n">
@@ -9675,7 +9699,11 @@
           <t>瑪爾達〔聖誕〕</t>
         </is>
       </c>
-      <c r="F331" t="inlineStr"/>
+      <c r="F331" t="inlineStr">
+        <is>
+          <t>瑪爾大〔Santa〕</t>
+        </is>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="n">
@@ -10174,7 +10202,11 @@
           <t>アーキタイプ：アース</t>
         </is>
       </c>
-      <c r="E352" t="inlineStr"/>
+      <c r="E352" t="inlineStr">
+        <is>
+          <t>Archetype：Earth</t>
+        </is>
+      </c>
       <c r="F352" t="inlineStr"/>
     </row>
     <row r="353">
@@ -10194,7 +10226,11 @@
           <t>徐福</t>
         </is>
       </c>
-      <c r="E353" t="inlineStr"/>
+      <c r="E353" t="inlineStr">
+        <is>
+          <t>方巿</t>
+        </is>
+      </c>
       <c r="F353" t="inlineStr"/>
     </row>
     <row r="354">
@@ -10214,7 +10250,11 @@
           <t>レディ・アヴァロン</t>
         </is>
       </c>
-      <c r="E354" t="inlineStr"/>
+      <c r="E354" t="inlineStr">
+        <is>
+          <t>阿瓦隆女士</t>
+        </is>
+      </c>
       <c r="F354" t="inlineStr"/>
     </row>
     <row r="355">
@@ -10234,7 +10274,11 @@
           <t>ガレス</t>
         </is>
       </c>
-      <c r="E355" t="inlineStr"/>
+      <c r="E355" t="inlineStr">
+        <is>
+          <t>加雷斯</t>
+        </is>
+      </c>
       <c r="F355" t="inlineStr"/>
     </row>
     <row r="356">
@@ -10254,7 +10298,11 @@
           <t>伊吹童子</t>
         </is>
       </c>
-      <c r="E356" t="inlineStr"/>
+      <c r="E356" t="inlineStr">
+        <is>
+          <t>伊吹童子</t>
+        </is>
+      </c>
       <c r="F356" t="inlineStr"/>
     </row>
     <row r="357">
@@ -10274,7 +10322,11 @@
           <t>宇津見エリセ</t>
         </is>
       </c>
-      <c r="E357" t="inlineStr"/>
+      <c r="E357" t="inlineStr">
+        <is>
+          <t>宇津見繪里瀨</t>
+        </is>
+      </c>
       <c r="F357" t="inlineStr"/>
     </row>
     <row r="358">
@@ -10294,7 +10346,11 @@
           <t>スカサハ＝スカディ</t>
         </is>
       </c>
-      <c r="E358" t="inlineStr"/>
+      <c r="E358" t="inlineStr">
+        <is>
+          <t>斯卡哈·斯卡蒂</t>
+        </is>
+      </c>
       <c r="F358" t="inlineStr"/>
     </row>
     <row r="359">
@@ -10314,7 +10370,11 @@
           <t>武則天</t>
         </is>
       </c>
-      <c r="E359" t="inlineStr"/>
+      <c r="E359" t="inlineStr">
+        <is>
+          <t>周照</t>
+        </is>
+      </c>
       <c r="F359" t="inlineStr"/>
     </row>
     <row r="360">
@@ -10334,7 +10394,11 @@
           <t>スルーズ</t>
         </is>
       </c>
-      <c r="E360" t="inlineStr"/>
+      <c r="E360" t="inlineStr">
+        <is>
+          <t>斯露德</t>
+        </is>
+      </c>
       <c r="F360" t="inlineStr"/>
     </row>
     <row r="361">
@@ -10354,7 +10418,11 @@
           <t>ヒルド</t>
         </is>
       </c>
-      <c r="E361" t="inlineStr"/>
+      <c r="E361" t="inlineStr">
+        <is>
+          <t>希露德</t>
+        </is>
+      </c>
       <c r="F361" t="inlineStr"/>
     </row>
     <row r="362">
@@ -10374,7 +10442,11 @@
           <t>オルトリンデ</t>
         </is>
       </c>
-      <c r="E362" t="inlineStr"/>
+      <c r="E362" t="inlineStr">
+        <is>
+          <t>奧特琳德</t>
+        </is>
+      </c>
       <c r="F362" t="inlineStr"/>
     </row>
     <row r="363">
@@ -10394,7 +10466,11 @@
           <t>千利休</t>
         </is>
       </c>
-      <c r="E363" t="inlineStr"/>
+      <c r="E363" t="inlineStr">
+        <is>
+          <t>千利休</t>
+        </is>
+      </c>
       <c r="F363" t="inlineStr"/>
     </row>
     <row r="364">
@@ -10414,7 +10490,11 @@
           <t>山南敬助</t>
         </is>
       </c>
-      <c r="E364" t="inlineStr"/>
+      <c r="E364" t="inlineStr">
+        <is>
+          <t>山南敬助</t>
+        </is>
+      </c>
       <c r="F364" t="inlineStr"/>
     </row>
     <row r="365">
@@ -10434,7 +10514,11 @@
           <t>壱与</t>
         </is>
       </c>
-      <c r="E365" t="inlineStr"/>
+      <c r="E365" t="inlineStr">
+        <is>
+          <t>壹與</t>
+        </is>
+      </c>
       <c r="F365" t="inlineStr"/>
     </row>
     <row r="366">
@@ -10454,7 +10538,11 @@
           <t>呼延灼</t>
         </is>
       </c>
-      <c r="E366" t="inlineStr"/>
+      <c r="E366" t="inlineStr">
+        <is>
+          <t>吾綽</t>
+        </is>
+      </c>
       <c r="F366" t="inlineStr"/>
     </row>
     <row r="367">
@@ -10474,7 +10562,11 @@
           <t>黄飛虎</t>
         </is>
       </c>
-      <c r="E367" t="inlineStr"/>
+      <c r="E367" t="inlineStr">
+        <is>
+          <t>黃飛虎</t>
+        </is>
+      </c>
       <c r="F367" t="inlineStr"/>
     </row>
     <row r="368">
@@ -10494,7 +10586,11 @@
           <t>九紋竜エリザ</t>
         </is>
       </c>
-      <c r="E368" t="inlineStr"/>
+      <c r="E368" t="inlineStr">
+        <is>
+          <t>九紋龍伊麗莎</t>
+        </is>
+      </c>
       <c r="F368" t="inlineStr"/>
     </row>
     <row r="369">
@@ -10856,6 +10952,166 @@
       </c>
       <c r="E386" t="inlineStr"/>
       <c r="F386" t="inlineStr"/>
+    </row>
+    <row r="387">
+      <c r="A387" t="n">
+        <v>386</v>
+      </c>
+      <c r="B387" t="n">
+        <v>5</v>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D387" t="inlineStr">
+        <is>
+          <t>アルトリア・キャスター</t>
+        </is>
+      </c>
+      <c r="E387" t="inlineStr"/>
+      <c r="F387" t="inlineStr"/>
+    </row>
+    <row r="388">
+      <c r="A388" t="n">
+        <v>387</v>
+      </c>
+      <c r="B388" t="n">
+        <v>4</v>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D388" t="inlineStr">
+        <is>
+          <t>鈴鹿御前〔サマバケ〕</t>
+        </is>
+      </c>
+      <c r="E388" t="inlineStr"/>
+      <c r="F388" t="inlineStr"/>
+    </row>
+    <row r="389">
+      <c r="A389" t="n">
+        <v>388</v>
+      </c>
+      <c r="B389" t="n">
+        <v>4</v>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D389" t="inlineStr">
+        <is>
+          <t>クロエ・フォン・アインツベルン</t>
+        </is>
+      </c>
+      <c r="E389" t="inlineStr"/>
+      <c r="F389" t="inlineStr"/>
+    </row>
+    <row r="390">
+      <c r="A390" t="n">
+        <v>389</v>
+      </c>
+      <c r="B390" t="n">
+        <v>4</v>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D390" t="inlineStr">
+        <is>
+          <t>ノクナレア・ヤラアーンドゥ</t>
+        </is>
+      </c>
+      <c r="E390" t="inlineStr"/>
+      <c r="F390" t="inlineStr"/>
+    </row>
+    <row r="391">
+      <c r="A391" t="n">
+        <v>390</v>
+      </c>
+      <c r="B391" t="n">
+        <v>5</v>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D391" t="inlineStr">
+        <is>
+          <t>メリュジーヌ</t>
+        </is>
+      </c>
+      <c r="E391" t="inlineStr"/>
+      <c r="F391" t="inlineStr"/>
+    </row>
+    <row r="392">
+      <c r="A392" t="n">
+        <v>391</v>
+      </c>
+      <c r="B392" t="n">
+        <v>4</v>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D392" t="inlineStr">
+        <is>
+          <t>ＵＤＫ－バーゲスト</t>
+        </is>
+      </c>
+      <c r="E392" t="inlineStr"/>
+      <c r="F392" t="inlineStr"/>
+    </row>
+    <row r="393">
+      <c r="A393" t="n">
+        <v>392</v>
+      </c>
+      <c r="B393" t="n">
+        <v>4</v>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>Pretender</t>
+        </is>
+      </c>
+      <c r="D393" t="inlineStr">
+        <is>
+          <t>ケット・クー・ミコケル</t>
+        </is>
+      </c>
+      <c r="E393" t="inlineStr"/>
+      <c r="F393" t="inlineStr"/>
+    </row>
+    <row r="394">
+      <c r="A394" t="n">
+        <v>393</v>
+      </c>
+      <c r="B394" t="n">
+        <v>5</v>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>Foreigner</t>
+        </is>
+      </c>
+      <c r="D394" t="inlineStr">
+        <is>
+          <t>ワンジナ</t>
+        </is>
+      </c>
+      <c r="E394" t="inlineStr"/>
+      <c r="F394" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F394"/>
+  <dimension ref="A1:F403"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9727,7 +9727,11 @@
           <t>太公望</t>
         </is>
       </c>
-      <c r="F332" t="inlineStr"/>
+      <c r="F332" t="inlineStr">
+        <is>
+          <t>太公望</t>
+        </is>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="n">
@@ -9751,7 +9755,11 @@
           <t>多佈雷尼亞·尼基季奇</t>
         </is>
       </c>
-      <c r="F333" t="inlineStr"/>
+      <c r="F333" t="inlineStr">
+        <is>
+          <t>多布雷尼亞．尼基季奇</t>
+        </is>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="n">
@@ -9775,7 +9783,11 @@
           <t>Beast Ⅳ</t>
         </is>
       </c>
-      <c r="F334" t="inlineStr"/>
+      <c r="F334" t="inlineStr">
+        <is>
+          <t>Beast Ⅳ</t>
+        </is>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="n">
@@ -9799,7 +9811,11 @@
           <t>暗之高揚斯卡婭</t>
         </is>
       </c>
-      <c r="F335" t="inlineStr"/>
+      <c r="F335" t="inlineStr">
+        <is>
+          <t>暗之高揚斯卡婭</t>
+        </is>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="n">
@@ -9823,7 +9839,11 @@
           <t>赫費斯提翁</t>
         </is>
       </c>
-      <c r="F336" t="inlineStr"/>
+      <c r="F336" t="inlineStr">
+        <is>
+          <t>赫費斯提翁</t>
+        </is>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="n">
@@ -9847,7 +9867,11 @@
           <t>馬納南·麥克·利爾〔巴澤特〕</t>
         </is>
       </c>
-      <c r="F337" t="inlineStr"/>
+      <c r="F337" t="inlineStr">
+        <is>
+          <t>馬納南．麥克．利爾〔芭潔特〕</t>
+        </is>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="n">
@@ -10610,7 +10634,11 @@
           <t>ブリトマート</t>
         </is>
       </c>
-      <c r="E369" t="inlineStr"/>
+      <c r="E369" t="inlineStr">
+        <is>
+          <t>布里託瑪特</t>
+        </is>
+      </c>
       <c r="F369" t="inlineStr"/>
     </row>
     <row r="370">
@@ -10630,7 +10658,11 @@
           <t>言峰綺礼</t>
         </is>
       </c>
-      <c r="E370" t="inlineStr"/>
+      <c r="E370" t="inlineStr">
+        <is>
+          <t>言峯綺禮</t>
+        </is>
+      </c>
       <c r="F370" t="inlineStr"/>
     </row>
     <row r="371">
@@ -11112,6 +11144,186 @@
       </c>
       <c r="E394" t="inlineStr"/>
       <c r="F394" t="inlineStr"/>
+    </row>
+    <row r="395">
+      <c r="A395" t="n">
+        <v>394</v>
+      </c>
+      <c r="B395" t="n">
+        <v>5</v>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D395" t="inlineStr">
+        <is>
+          <t>プトレマイオス</t>
+        </is>
+      </c>
+      <c r="E395" t="inlineStr"/>
+      <c r="F395" t="inlineStr"/>
+    </row>
+    <row r="396">
+      <c r="A396" t="n">
+        <v>395</v>
+      </c>
+      <c r="B396" t="n">
+        <v>3</v>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D396" t="inlineStr">
+        <is>
+          <t>杉谷善住坊</t>
+        </is>
+      </c>
+      <c r="E396" t="inlineStr"/>
+      <c r="F396" t="inlineStr"/>
+    </row>
+    <row r="397">
+      <c r="A397" t="n">
+        <v>396</v>
+      </c>
+      <c r="B397" t="n">
+        <v>3</v>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D397" t="inlineStr">
+        <is>
+          <t>テセウス</t>
+        </is>
+      </c>
+      <c r="E397" t="inlineStr"/>
+      <c r="F397" t="inlineStr"/>
+    </row>
+    <row r="398">
+      <c r="A398" t="n">
+        <v>397</v>
+      </c>
+      <c r="B398" t="n">
+        <v>5</v>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D398" t="inlineStr">
+        <is>
+          <t>武田晴信</t>
+        </is>
+      </c>
+      <c r="E398" t="inlineStr"/>
+      <c r="F398" t="inlineStr"/>
+    </row>
+    <row r="399">
+      <c r="A399" t="n">
+        <v>398</v>
+      </c>
+      <c r="B399" t="n">
+        <v>4</v>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>Berserker</t>
+        </is>
+      </c>
+      <c r="D399" t="inlineStr">
+        <is>
+          <t>永倉新八</t>
+        </is>
+      </c>
+      <c r="E399" t="inlineStr"/>
+      <c r="F399" t="inlineStr"/>
+    </row>
+    <row r="400">
+      <c r="A400" t="n">
+        <v>399</v>
+      </c>
+      <c r="B400" t="n">
+        <v>4</v>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>Archer</t>
+        </is>
+      </c>
+      <c r="D400" t="inlineStr">
+        <is>
+          <t>雑賀孫一</t>
+        </is>
+      </c>
+      <c r="E400" t="inlineStr"/>
+      <c r="F400" t="inlineStr"/>
+    </row>
+    <row r="401">
+      <c r="A401" t="n">
+        <v>400</v>
+      </c>
+      <c r="B401" t="n">
+        <v>5</v>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>Ruler</t>
+        </is>
+      </c>
+      <c r="D401" t="inlineStr">
+        <is>
+          <t>上杉謙信</t>
+        </is>
+      </c>
+      <c r="E401" t="inlineStr"/>
+      <c r="F401" t="inlineStr"/>
+    </row>
+    <row r="402">
+      <c r="A402" t="n">
+        <v>401</v>
+      </c>
+      <c r="B402" t="n">
+        <v>4</v>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D402" t="inlineStr">
+        <is>
+          <t>ネモ〔サンタ〕</t>
+        </is>
+      </c>
+      <c r="E402" t="inlineStr"/>
+      <c r="F402" t="inlineStr"/>
+    </row>
+    <row r="403">
+      <c r="A403" t="n">
+        <v>402</v>
+      </c>
+      <c r="B403" t="n">
+        <v>5</v>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D403" t="inlineStr">
+        <is>
+          <t>ヤマトタケル</t>
+        </is>
+      </c>
+      <c r="E403" t="inlineStr"/>
+      <c r="F403" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/servents.xlsx
+++ b/servents.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F403"/>
+  <dimension ref="A1:F407"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -9895,7 +9895,11 @@
           <t>徵氏姐妹</t>
         </is>
       </c>
-      <c r="F338" t="inlineStr"/>
+      <c r="F338" t="inlineStr">
+        <is>
+          <t>徵氏姐妹</t>
+        </is>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="n">
@@ -9919,7 +9923,11 @@
           <t>太歲星君</t>
         </is>
       </c>
-      <c r="F339" t="inlineStr"/>
+      <c r="F339" t="inlineStr">
+        <is>
+          <t>太歲星君</t>
+        </is>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="n">
@@ -9943,7 +9951,11 @@
           <t>超級班揚</t>
         </is>
       </c>
-      <c r="F340" t="inlineStr"/>
+      <c r="F340" t="inlineStr">
+        <is>
+          <t>超級班揚</t>
+        </is>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="n">
@@ -9967,7 +9979,11 @@
           <t>大黑天</t>
         </is>
       </c>
-      <c r="F341" t="inlineStr"/>
+      <c r="F341" t="inlineStr">
+        <is>
+          <t>大黑天</t>
+        </is>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="n">
@@ -9991,7 +10007,11 @@
           <t>瑪麗·安寧</t>
         </is>
       </c>
-      <c r="F342" t="inlineStr"/>
+      <c r="F342" t="inlineStr">
+        <is>
+          <t>瑪麗．安寧</t>
+        </is>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="n">
@@ -10682,7 +10702,11 @@
           <t>ニトクリス〔オルタ〕</t>
         </is>
       </c>
-      <c r="E371" t="inlineStr"/>
+      <c r="E371" t="inlineStr">
+        <is>
+          <t>尼託克麗絲〔Alter〕</t>
+        </is>
+      </c>
       <c r="F371" t="inlineStr"/>
     </row>
     <row r="372">
@@ -10702,7 +10726,11 @@
           <t>テスカトリポカ</t>
         </is>
       </c>
-      <c r="E372" t="inlineStr"/>
+      <c r="E372" t="inlineStr">
+        <is>
+          <t>特斯卡特利波卡</t>
+        </is>
+      </c>
       <c r="F372" t="inlineStr"/>
     </row>
     <row r="373">
@@ -10722,7 +10750,11 @@
           <t>テノチティトラン</t>
         </is>
       </c>
-      <c r="E373" t="inlineStr"/>
+      <c r="E373" t="inlineStr">
+        <is>
+          <t>特諾奇蒂特蘭</t>
+        </is>
+      </c>
       <c r="F373" t="inlineStr"/>
     </row>
     <row r="374">
@@ -10742,7 +10774,11 @@
           <t>ククルカン</t>
         </is>
       </c>
-      <c r="E374" t="inlineStr"/>
+      <c r="E374" t="inlineStr">
+        <is>
+          <t>庫庫爾坎</t>
+        </is>
+      </c>
       <c r="F374" t="inlineStr"/>
     </row>
     <row r="375">
@@ -10762,7 +10798,11 @@
           <t>女教皇ヨハンナ</t>
         </is>
       </c>
-      <c r="E375" t="inlineStr"/>
+      <c r="E375" t="inlineStr">
+        <is>
+          <t>女教皇若安</t>
+        </is>
+      </c>
       <c r="F375" t="inlineStr"/>
     </row>
     <row r="376">
@@ -11324,6 +11364,86 @@
       </c>
       <c r="E403" t="inlineStr"/>
       <c r="F403" t="inlineStr"/>
+    </row>
+    <row r="404">
+      <c r="A404" t="n">
+        <v>403</v>
+      </c>
+      <c r="B404" t="n">
+        <v>5</v>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>Avenger</t>
+        </is>
+      </c>
+      <c r="D404" t="inlineStr">
+        <is>
+          <t>源頼光／丑御前</t>
+        </is>
+      </c>
+      <c r="E404" t="inlineStr"/>
+      <c r="F404" t="inlineStr"/>
+    </row>
+    <row r="405">
+      <c r="A405" t="n">
+        <v>404</v>
+      </c>
+      <c r="B405" t="n">
+        <v>4</v>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>Caster</t>
+        </is>
+      </c>
+      <c r="D405" t="inlineStr">
+        <is>
+          <t>由井正雪</t>
+        </is>
+      </c>
+      <c r="E405" t="inlineStr"/>
+      <c r="F405" t="inlineStr"/>
+    </row>
+    <row r="406">
+      <c r="A406" t="n">
+        <v>405</v>
+      </c>
+      <c r="B406" t="n">
+        <v>4</v>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>Saber</t>
+        </is>
+      </c>
+      <c r="D406" t="inlineStr">
+        <is>
+          <t>宮本伊織</t>
+        </is>
+      </c>
+      <c r="E406" t="inlineStr"/>
+      <c r="F406" t="inlineStr"/>
+    </row>
+    <row r="407">
+      <c r="A407" t="n">
+        <v>406</v>
+      </c>
+      <c r="B407" t="n">
+        <v>5</v>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>Rider</t>
+        </is>
+      </c>
+      <c r="D407" t="inlineStr">
+        <is>
+          <t>アンドロメダ</t>
+        </is>
+      </c>
+      <c r="E407" t="inlineStr"/>
+      <c r="F407" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
